--- a/RawMaterials/data/LocalAdaptionDataGathering.xlsx
+++ b/RawMaterials/data/LocalAdaptionDataGathering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01B9F8-DA37-4F7E-80A5-03CA7D6D6632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7726FE60-8532-44DB-B566-584C832F57B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6762" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6767" uniqueCount="1205">
   <si>
     <t>ID1</t>
   </si>
@@ -5139,9 +5139,6 @@
     <t>daily_climate_garden_gathered</t>
   </si>
   <si>
-    <t>missing_prov</t>
-  </si>
-  <si>
     <t>prov46</t>
   </si>
   <si>
@@ -5164,6 +5161,12 @@
   </si>
   <si>
     <t>prov3</t>
+  </si>
+  <si>
+    <t>missing_dailyclim_prov</t>
+  </si>
+  <si>
+    <t>facet_plots_distribution_overlap</t>
   </si>
 </sst>
 </file>
@@ -61047,8 +61050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE38D98-9064-4846-BB7F-8B771A284B01}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -69991,11 +69994,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65599BFC-5B06-4EDE-87C3-57BB3CCD5BDB}">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W17" sqref="W17"/>
+      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -70010,10 +70013,10 @@
     <col min="9" max="9" width="18.09765625" customWidth="1"/>
     <col min="11" max="11" width="21.046875" customWidth="1"/>
     <col min="19" max="19" width="15.6484375" customWidth="1"/>
-    <col min="20" max="24" width="22.796875" customWidth="1"/>
+    <col min="20" max="25" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.6">
       <c r="B1" s="1" t="s">
         <v>652</v>
       </c>
@@ -70060,7 +70063,7 @@
         <v>1192</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="R1" s="25" t="s">
         <v>1194</v>
@@ -70075,19 +70078,22 @@
         <v>970</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>988</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="Y1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Z1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -70137,7 +70143,7 @@
         <v>672</v>
       </c>
       <c r="Q2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="R2" t="s">
         <v>672</v>
@@ -70161,7 +70167,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -70209,7 +70215,7 @@
         <v>672</v>
       </c>
       <c r="Q3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R3" t="s">
         <v>672</v>
@@ -70229,8 +70235,9 @@
       <c r="X3" s="4" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.6">
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A19" si="0">A3+1</f>
         <v>3</v>
@@ -70298,18 +70305,19 @@
       <c r="X4" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="Y4" s="46" t="s">
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="Z4" s="46"/>
-      <c r="AB4" t="s">
+      <c r="AA4" s="46"/>
+      <c r="AC4" t="s">
         <v>991</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -70357,14 +70365,14 @@
       <c r="U5" t="s">
         <v>695</v>
       </c>
-      <c r="Y5" s="61" t="s">
+      <c r="Z5" s="61" t="s">
         <v>697</v>
       </c>
-      <c r="Z5" s="61"/>
       <c r="AA5" s="61"/>
       <c r="AB5" s="61"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.6">
+      <c r="AC5" s="61"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -70412,7 +70420,7 @@
         <v>672</v>
       </c>
       <c r="Q6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R6" s="10" t="s">
         <v>672</v>
@@ -70433,7 +70441,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -70499,7 +70507,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -70565,7 +70573,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -70633,11 +70641,11 @@
       <c r="X9" t="s">
         <v>672</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -70705,11 +70713,11 @@
       <c r="X10" t="s">
         <v>672</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -70757,7 +70765,7 @@
         <v>672</v>
       </c>
       <c r="Q11" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R11" s="61" t="s">
         <v>726</v>
@@ -70771,21 +70779,25 @@
       <c r="U11" t="s">
         <v>695</v>
       </c>
+      <c r="V11" t="s">
+        <v>672</v>
+      </c>
       <c r="W11" t="s">
         <v>695</v>
       </c>
       <c r="X11" s="63"/>
-      <c r="Y11" t="s">
+      <c r="Y11" s="63"/>
+      <c r="Z11" t="s">
         <v>731</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -70850,17 +70862,17 @@
       <c r="X12" t="s">
         <v>672</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>732</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -70922,17 +70934,17 @@
       <c r="X13" t="s">
         <v>672</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>622</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -70997,14 +71009,17 @@
       <c r="X14" t="s">
         <v>672</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="Y14" t="s">
+        <v>672</v>
+      </c>
+      <c r="AG14" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -71048,17 +71063,17 @@
       <c r="U15" s="62" t="s">
         <v>672</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>887</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -71123,14 +71138,17 @@
       <c r="X16" t="s">
         <v>672</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="Y16" t="s">
+        <v>672</v>
+      </c>
+      <c r="AG16" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -71195,14 +71213,14 @@
       <c r="X17" t="s">
         <v>672</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -71267,23 +71285,23 @@
       <c r="X18" t="s">
         <v>672</v>
       </c>
-      <c r="Y18" s="63" t="s">
-        <v>1201</v>
-      </c>
-      <c r="Z18" s="63"/>
+      <c r="Z18" s="63" t="s">
+        <v>1200</v>
+      </c>
       <c r="AA18" s="63"/>
       <c r="AB18" s="63"/>
       <c r="AC18" s="63"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="63"/>
-      <c r="AF18" s="1" t="s">
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -71331,7 +71349,7 @@
         <v>672</v>
       </c>
       <c r="Q19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R19" t="s">
         <v>672</v>
@@ -71351,14 +71369,14 @@
       <c r="X19" t="s">
         <v>672</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AG19" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -71425,14 +71443,14 @@
       <c r="X20" t="s">
         <v>672</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AG20" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A21">
         <f>A20+1</f>
         <v>20</v>
@@ -71500,14 +71518,14 @@
       <c r="X21" t="s">
         <v>672</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A22">
         <f t="shared" ref="A22:A26" si="1">A21+1</f>
         <v>21</v>
@@ -71575,14 +71593,14 @@
       <c r="X22" t="s">
         <v>672</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AG22" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -71620,17 +71638,21 @@
       <c r="L23" t="s">
         <v>1119</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="N23" t="s">
+        <v>672</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="AG23" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -71669,14 +71691,14 @@
       <c r="M24" s="15" t="s">
         <v>1148</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AG24" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -71702,14 +71724,14 @@
       <c r="N25" t="s">
         <v>1155</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AG25" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.6">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -71753,14 +71775,14 @@
       <c r="N26" t="s">
         <v>1179</v>
       </c>
-      <c r="AF26" s="1" t="s">
+      <c r="AG26" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.6">
       <c r="B27" s="52" t="s">
         <v>1180</v>
       </c>
@@ -71795,7 +71817,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.6">
       <c r="B28" s="10" t="s">
         <v>1187</v>
       </c>
@@ -71833,7 +71855,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.6">
       <c r="B29" s="10" t="s">
         <v>1188</v>
       </c>

--- a/RawMaterials/data/LocalAdaptionDataGathering.xlsx
+++ b/RawMaterials/data/LocalAdaptionDataGathering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7726FE60-8532-44DB-B566-584C832F57B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310D2F5-23EC-4A47-A0BF-29C12E07A882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -6793,7 +6793,7 @@
   <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:XFD1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -51928,8 +51928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4ECFFA-8AC8-4048-AA07-B0D2503C1E8B}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q9:R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -51968,6 +51968,11 @@
         <v>931</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="H6">
+        <v>90</v>
+      </c>
+    </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
@@ -52015,7 +52020,7 @@
       <c r="G8" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -52074,8 +52079,8 @@
       <c r="G9" s="4">
         <v>11.116666666666699</v>
       </c>
-      <c r="H9" s="4">
-        <v>27.722000000000001</v>
+      <c r="H9">
+        <v>117.72200000000001</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>969</v>
@@ -52135,8 +52140,8 @@
       <c r="G10" s="4">
         <v>10.008333333333301</v>
       </c>
-      <c r="H10" s="4">
-        <v>28.611000000000001</v>
+      <c r="H10">
+        <v>118.611</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>969</v>
@@ -52197,8 +52202,8 @@
       <c r="G11" s="4">
         <v>12.925000000000001</v>
       </c>
-      <c r="H11" s="4">
-        <v>28.611000000000001</v>
+      <c r="H11">
+        <v>118.611</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>969</v>
@@ -52259,8 +52264,8 @@
       <c r="G12" s="5">
         <v>5.7916670000000003</v>
       </c>
-      <c r="H12" s="4">
-        <v>31.722000000000001</v>
+      <c r="H12">
+        <v>121.72200000000001</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>969</v>
@@ -52441,8 +52446,8 @@
       <c r="G15" s="4">
         <v>8.7083333333333304</v>
       </c>
-      <c r="H15" s="4">
-        <v>37.722000000000001</v>
+      <c r="H15">
+        <v>127.72200000000001</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>969</v>
@@ -69996,9 +70001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65599BFC-5B06-4EDE-87C3-57BB3CCD5BDB}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y15" sqref="Y15"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>

--- a/RawMaterials/data/LocalAdaptionDataGathering.xlsx
+++ b/RawMaterials/data/LocalAdaptionDataGathering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310D2F5-23EC-4A47-A0BF-29C12E07A882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26E34D4-3DBB-4A63-B6F2-7E61C925E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="23" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6767" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6734" uniqueCount="1206">
   <si>
     <t>ID1</t>
   </si>
@@ -5167,6 +5167,9 @@
   </si>
   <si>
     <t>facet_plots_distribution_overlap</t>
+  </si>
+  <si>
+    <t>percentage_distribution_overlap</t>
   </si>
 </sst>
 </file>
@@ -45404,10 +45407,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3977A-6DD7-4C46-8407-D260F17042BC}">
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q14:R55"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -45620,8 +45623,8 @@
       <c r="H14">
         <v>146.50899999999999</v>
       </c>
-      <c r="I14" t="s">
-        <v>969</v>
+      <c r="I14">
+        <v>297.00599999999997</v>
       </c>
       <c r="J14">
         <v>51.9</v>
@@ -45679,8 +45682,8 @@
       <c r="H15">
         <v>151.846</v>
       </c>
-      <c r="I15" t="s">
-        <v>969</v>
+      <c r="I15">
+        <v>298.03399999999999</v>
       </c>
       <c r="J15">
         <v>51.9</v>
@@ -45738,8 +45741,8 @@
       <c r="H16">
         <v>145.29599999999999</v>
       </c>
-      <c r="I16" t="s">
-        <v>969</v>
+      <c r="I16">
+        <v>293.8</v>
       </c>
       <c r="J16">
         <v>51.9</v>
@@ -45797,8 +45800,8 @@
       <c r="H17">
         <v>147.965</v>
       </c>
-      <c r="I17" t="s">
-        <v>969</v>
+      <c r="I17">
+        <v>293.98200000000003</v>
       </c>
       <c r="J17">
         <v>51.9</v>
@@ -45856,8 +45859,8 @@
       <c r="H18">
         <v>149.178</v>
       </c>
-      <c r="I18" t="s">
-        <v>969</v>
+      <c r="I18">
+        <v>294.76799999999997</v>
       </c>
       <c r="J18">
         <v>51.9</v>
@@ -45915,8 +45918,8 @@
       <c r="H19">
         <v>150.876</v>
       </c>
-      <c r="I19" t="s">
-        <v>969</v>
+      <c r="I19">
+        <v>296.76400000000001</v>
       </c>
       <c r="J19">
         <v>51.9</v>
@@ -45974,8 +45977,8 @@
       <c r="H20">
         <v>149.25899999999999</v>
       </c>
-      <c r="I20" t="s">
-        <v>969</v>
+      <c r="I20">
+        <v>296.03800000000001</v>
       </c>
       <c r="J20">
         <v>51.9</v>
@@ -46033,8 +46036,8 @@
       <c r="H21">
         <v>148.85400000000001</v>
       </c>
-      <c r="I21" t="s">
-        <v>969</v>
+      <c r="I21">
+        <v>304.38499999999999</v>
       </c>
       <c r="J21">
         <v>51.9</v>
@@ -46093,8 +46096,8 @@
       <c r="H22">
         <v>150.95699999999999</v>
       </c>
-      <c r="I22" t="s">
-        <v>969</v>
+      <c r="I22">
+        <v>299.48599999999999</v>
       </c>
       <c r="J22">
         <v>51.9</v>
@@ -46152,8 +46155,8 @@
       <c r="H23">
         <v>151.44200000000001</v>
       </c>
-      <c r="I23" t="s">
-        <v>969</v>
+      <c r="I23">
+        <v>299.00200000000001</v>
       </c>
       <c r="J23">
         <v>51.9</v>
@@ -46211,8 +46214,8 @@
       <c r="H24">
         <v>150.714</v>
       </c>
-      <c r="I24" t="s">
-        <v>969</v>
+      <c r="I24">
+        <v>298.27600000000001</v>
       </c>
       <c r="J24">
         <v>51.9</v>
@@ -46270,8 +46273,8 @@
       <c r="H25">
         <v>146.34800000000001</v>
       </c>
-      <c r="I25" t="s">
-        <v>969</v>
+      <c r="I25">
+        <v>292.40899999999999</v>
       </c>
       <c r="J25">
         <v>51.9</v>
@@ -46329,8 +46332,8 @@
       <c r="H26">
         <v>147.965</v>
       </c>
-      <c r="I26" t="s">
-        <v>969</v>
+      <c r="I26">
+        <v>297.12700000000001</v>
       </c>
       <c r="J26">
         <v>51.9</v>
@@ -46388,8 +46391,8 @@
       <c r="H27">
         <v>149.744</v>
       </c>
-      <c r="I27" t="s">
-        <v>969</v>
+      <c r="I27">
+        <v>297.12700000000001</v>
       </c>
       <c r="J27">
         <v>51.9</v>
@@ -46447,8 +46450,8 @@
       <c r="H28">
         <v>148.69300000000001</v>
       </c>
-      <c r="I28" t="s">
-        <v>969</v>
+      <c r="I28">
+        <v>298.15499999999997</v>
       </c>
       <c r="J28">
         <v>51.9</v>
@@ -46506,8 +46509,8 @@
       <c r="H29">
         <v>149.66300000000001</v>
       </c>
-      <c r="I29" t="s">
-        <v>969</v>
+      <c r="I29">
+        <v>296.27999999999997</v>
       </c>
       <c r="J29">
         <v>51.9</v>
@@ -46565,8 +46568,8 @@
       <c r="H30">
         <v>151.44200000000001</v>
       </c>
-      <c r="I30" t="s">
-        <v>969</v>
+      <c r="I30">
+        <v>291.01799999999997</v>
       </c>
       <c r="J30">
         <v>51.9</v>
@@ -46624,8 +46627,8 @@
       <c r="H31">
         <v>149.01599999999999</v>
       </c>
-      <c r="I31" t="s">
-        <v>969</v>
+      <c r="I31">
+        <v>295.25200000000001</v>
       </c>
       <c r="J31">
         <v>51.9</v>
@@ -46683,8 +46686,8 @@
       <c r="H32">
         <v>155</v>
       </c>
-      <c r="I32" t="s">
-        <v>969</v>
+      <c r="I32">
+        <v>297.30799999999999</v>
       </c>
       <c r="J32">
         <v>51.9</v>
@@ -46742,8 +46745,8 @@
       <c r="H33">
         <v>149.744</v>
       </c>
-      <c r="I33" t="s">
-        <v>969</v>
+      <c r="I33">
+        <v>298.33699999999999</v>
       </c>
       <c r="J33">
         <v>51.9</v>
@@ -46801,8 +46804,8 @@
       <c r="H34">
         <v>146.10499999999999</v>
       </c>
-      <c r="I34" t="s">
-        <v>969</v>
+      <c r="I34">
+        <v>298.63900000000001</v>
       </c>
       <c r="J34">
         <v>51.9</v>
@@ -46860,8 +46863,8 @@
       <c r="H35">
         <v>148.28800000000001</v>
       </c>
-      <c r="I35" t="s">
-        <v>969</v>
+      <c r="I35">
+        <v>300.09100000000001</v>
       </c>
       <c r="J35">
         <v>51.9</v>
@@ -46919,8 +46922,8 @@
       <c r="H36">
         <v>149.34</v>
       </c>
-      <c r="I36" t="s">
-        <v>969</v>
+      <c r="I36">
+        <v>300.69600000000003</v>
       </c>
       <c r="J36">
         <v>51.9</v>
@@ -46978,8 +46981,8 @@
       <c r="H37">
         <v>145.94300000000001</v>
       </c>
-      <c r="I37" t="s">
-        <v>969</v>
+      <c r="I37">
+        <v>298.94200000000001</v>
       </c>
       <c r="J37">
         <v>51.9</v>
@@ -47037,8 +47040,8 @@
       <c r="H38">
         <v>149.09700000000001</v>
       </c>
-      <c r="I38" t="s">
-        <v>969</v>
+      <c r="I38">
+        <v>299.48599999999999</v>
       </c>
       <c r="J38">
         <v>51.9</v>
@@ -47096,8 +47099,8 @@
       <c r="H39">
         <v>146.34800000000001</v>
       </c>
-      <c r="I39" t="s">
-        <v>969</v>
+      <c r="I39">
+        <v>298.57900000000001</v>
       </c>
       <c r="J39">
         <v>51.9</v>
@@ -47155,8 +47158,8 @@
       <c r="H40">
         <v>148.12700000000001</v>
       </c>
-      <c r="I40" t="s">
-        <v>969</v>
+      <c r="I40">
+        <v>304.99</v>
       </c>
       <c r="J40">
         <v>51.9</v>
@@ -47214,8 +47217,8 @@
       <c r="H41">
         <v>144.56899999999999</v>
       </c>
-      <c r="I41" t="s">
-        <v>969</v>
+      <c r="I41">
+        <v>302.32900000000001</v>
       </c>
       <c r="J41">
         <v>51.9</v>
@@ -47273,8 +47276,8 @@
       <c r="H42">
         <v>145.054</v>
       </c>
-      <c r="I42" t="s">
-        <v>969</v>
+      <c r="I42">
+        <v>301.60300000000001</v>
       </c>
       <c r="J42">
         <v>51.9</v>
@@ -47332,8 +47335,8 @@
       <c r="H43">
         <v>145.21600000000001</v>
       </c>
-      <c r="I43" t="s">
-        <v>969</v>
+      <c r="I43">
+        <v>302.93299999999999</v>
       </c>
       <c r="J43">
         <v>51.9</v>
@@ -47391,8 +47394,8 @@
       <c r="H44">
         <v>145.78200000000001</v>
       </c>
-      <c r="I44" t="s">
-        <v>969</v>
+      <c r="I44">
+        <v>303.05399999999997</v>
       </c>
       <c r="J44">
         <v>51.9</v>
@@ -47450,8 +47453,8 @@
       <c r="H45">
         <v>146.995</v>
       </c>
-      <c r="I45" t="s">
-        <v>969</v>
+      <c r="I45">
+        <v>301.3</v>
       </c>
       <c r="J45">
         <v>51.9</v>
@@ -47509,8 +47512,8 @@
       <c r="H46">
         <v>145.53899999999999</v>
       </c>
-      <c r="I46" t="s">
-        <v>969</v>
+      <c r="I46">
+        <v>307.04599999999999</v>
       </c>
       <c r="J46">
         <v>51.9</v>
@@ -47568,8 +47571,8 @@
       <c r="H47">
         <v>139.636</v>
       </c>
-      <c r="I47" t="s">
-        <v>969</v>
+      <c r="I47">
+        <v>305.65499999999997</v>
       </c>
       <c r="J47">
         <v>51.9</v>
@@ -47627,8 +47630,8 @@
       <c r="H48">
         <v>146.59</v>
       </c>
-      <c r="I48" t="s">
-        <v>969</v>
+      <c r="I48">
+        <v>303.29599999999999</v>
       </c>
       <c r="J48">
         <v>51.9</v>
@@ -47686,8 +47689,8 @@
       <c r="H49">
         <v>141.577</v>
       </c>
-      <c r="I49" t="s">
-        <v>969</v>
+      <c r="I49">
+        <v>301.3</v>
       </c>
       <c r="J49">
         <v>51.9</v>
@@ -47745,8 +47748,8 @@
       <c r="H50">
         <v>144.97300000000001</v>
       </c>
-      <c r="I50" t="s">
-        <v>969</v>
+      <c r="I50">
+        <v>303.90100000000001</v>
       </c>
       <c r="J50">
         <v>51.9</v>
@@ -47805,8 +47808,8 @@
       <c r="H51">
         <v>144.40700000000001</v>
       </c>
-      <c r="I51" t="s">
-        <v>969</v>
+      <c r="I51">
+        <v>304.26400000000001</v>
       </c>
       <c r="J51">
         <v>51.9</v>
@@ -47864,8 +47867,8 @@
       <c r="H52">
         <v>145.13499999999999</v>
       </c>
-      <c r="I52" t="s">
-        <v>969</v>
+      <c r="I52">
+        <v>299.90899999999999</v>
       </c>
       <c r="J52">
         <v>51.9</v>
@@ -47923,8 +47926,8 @@
       <c r="H53">
         <v>141.739</v>
       </c>
-      <c r="I53" t="s">
-        <v>969</v>
+      <c r="I53">
+        <v>300.69600000000003</v>
       </c>
       <c r="J53">
         <v>51.9</v>
@@ -47983,8 +47986,8 @@
       <c r="H54">
         <v>142.46600000000001</v>
       </c>
-      <c r="I54" t="s">
-        <v>969</v>
+      <c r="I54">
+        <v>302.99400000000003</v>
       </c>
       <c r="J54">
         <v>51.9</v>
@@ -48042,8 +48045,8 @@
       <c r="H55">
         <v>141.72499999999999</v>
       </c>
-      <c r="I55" t="s">
-        <v>969</v>
+      <c r="I55">
+        <v>303.65899999999999</v>
       </c>
       <c r="J55">
         <v>51.9</v>
@@ -48860,7 +48863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>784</v>
       </c>
@@ -48892,7 +48895,7 @@
         <v>149.744</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>785</v>
       </c>
@@ -48924,7 +48927,7 @@
         <v>146.10499999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>786</v>
       </c>
@@ -48956,7 +48959,7 @@
         <v>148.28800000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>787</v>
       </c>
@@ -48988,7 +48991,7 @@
         <v>149.34</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>788</v>
       </c>
@@ -49020,7 +49023,7 @@
         <v>145.94300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>789</v>
       </c>
@@ -49052,7 +49055,7 @@
         <v>149.09700000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>790</v>
       </c>
@@ -49081,7 +49084,7 @@
         <v>146.34800000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>791</v>
       </c>
@@ -49112,8 +49115,29 @@
       <c r="K104">
         <v>148.12700000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M104">
+        <v>42</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>57</v>
+      </c>
+      <c r="P104">
+        <v>57</v>
+      </c>
+      <c r="Q104">
+        <v>57</v>
+      </c>
+      <c r="R104">
+        <v>57.661000000000001</v>
+      </c>
+      <c r="S104">
+        <v>297.00599999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>792</v>
       </c>
@@ -49144,8 +49168,29 @@
       <c r="K105">
         <v>144.56899999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M105">
+        <v>41</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>57</v>
+      </c>
+      <c r="P105">
+        <v>57</v>
+      </c>
+      <c r="Q105">
+        <v>57</v>
+      </c>
+      <c r="R105">
+        <v>57.587000000000003</v>
+      </c>
+      <c r="S105">
+        <v>298.03399999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>794</v>
       </c>
@@ -49176,8 +49221,29 @@
       <c r="K106">
         <v>145.054</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M106">
+        <v>40</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>62</v>
+      </c>
+      <c r="P106">
+        <v>62</v>
+      </c>
+      <c r="Q106">
+        <v>62</v>
+      </c>
+      <c r="R106">
+        <v>57.523000000000003</v>
+      </c>
+      <c r="S106">
+        <v>293.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>795</v>
       </c>
@@ -49208,8 +49274,29 @@
       <c r="K107">
         <v>145.21600000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M107">
+        <v>39</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>56</v>
+      </c>
+      <c r="P107">
+        <v>56</v>
+      </c>
+      <c r="Q107">
+        <v>56</v>
+      </c>
+      <c r="R107">
+        <v>57.302</v>
+      </c>
+      <c r="S107">
+        <v>293.98200000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>796</v>
       </c>
@@ -49240,8 +49327,29 @@
       <c r="K108">
         <v>145.78200000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M108">
+        <v>38</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>59</v>
+      </c>
+      <c r="P108">
+        <v>59</v>
+      </c>
+      <c r="Q108">
+        <v>59</v>
+      </c>
+      <c r="R108">
+        <v>56.731999999999999</v>
+      </c>
+      <c r="S108">
+        <v>294.76799999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>797</v>
       </c>
@@ -49272,8 +49380,29 @@
       <c r="K109">
         <v>146.995</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M109">
+        <v>37</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>51</v>
+      </c>
+      <c r="P109">
+        <v>51</v>
+      </c>
+      <c r="Q109">
+        <v>51</v>
+      </c>
+      <c r="R109">
+        <v>56.720999999999997</v>
+      </c>
+      <c r="S109">
+        <v>296.76400000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>798</v>
       </c>
@@ -49304,8 +49433,29 @@
       <c r="K110">
         <v>145.53899999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M110">
+        <v>36</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>56</v>
+      </c>
+      <c r="P110">
+        <v>56</v>
+      </c>
+      <c r="Q110">
+        <v>56</v>
+      </c>
+      <c r="R110">
+        <v>56.667999999999999</v>
+      </c>
+      <c r="S110">
+        <v>296.03800000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>799</v>
       </c>
@@ -49336,8 +49486,29 @@
       <c r="K111">
         <v>139.636</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M111">
+        <v>35</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>54</v>
+      </c>
+      <c r="P111">
+        <v>54</v>
+      </c>
+      <c r="Q111">
+        <v>54</v>
+      </c>
+      <c r="R111">
+        <v>56.646999999999998</v>
+      </c>
+      <c r="S111">
+        <v>304.38499999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>800</v>
       </c>
@@ -49368,8 +49539,29 @@
       <c r="K112">
         <v>146.59</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M112">
+        <v>34</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>59</v>
+      </c>
+      <c r="P112">
+        <v>59</v>
+      </c>
+      <c r="Q112">
+        <v>59</v>
+      </c>
+      <c r="R112">
+        <v>56.658000000000001</v>
+      </c>
+      <c r="S112">
+        <v>299.48599999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>801</v>
       </c>
@@ -49400,8 +49592,29 @@
       <c r="K113">
         <v>141.577</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M113">
+        <v>33</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>56</v>
+      </c>
+      <c r="P113">
+        <v>56</v>
+      </c>
+      <c r="Q113">
+        <v>56</v>
+      </c>
+      <c r="R113">
+        <v>56.625999999999998</v>
+      </c>
+      <c r="S113">
+        <v>299.00200000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>802</v>
       </c>
@@ -49432,8 +49645,29 @@
       <c r="K114">
         <v>144.97300000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M114">
+        <v>32</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>61</v>
+      </c>
+      <c r="P114">
+        <v>61</v>
+      </c>
+      <c r="Q114">
+        <v>61</v>
+      </c>
+      <c r="R114">
+        <v>56.351999999999997</v>
+      </c>
+      <c r="S114">
+        <v>298.27600000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>803</v>
       </c>
@@ -49464,8 +49698,29 @@
       <c r="K115">
         <v>144.40700000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M115">
+        <v>31</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>55</v>
+      </c>
+      <c r="P115">
+        <v>55</v>
+      </c>
+      <c r="Q115">
+        <v>55</v>
+      </c>
+      <c r="R115">
+        <v>56.151000000000003</v>
+      </c>
+      <c r="S115">
+        <v>292.40899999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>804</v>
       </c>
@@ -49496,8 +49751,29 @@
       <c r="K116">
         <v>145.13499999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M116">
+        <v>30</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>54</v>
+      </c>
+      <c r="P116">
+        <v>54</v>
+      </c>
+      <c r="Q116">
+        <v>54</v>
+      </c>
+      <c r="R116">
+        <v>55.960999999999999</v>
+      </c>
+      <c r="S116">
+        <v>297.12700000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>805</v>
       </c>
@@ -49528,8 +49804,29 @@
       <c r="K117">
         <v>141.739</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M117">
+        <v>29</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>66</v>
+      </c>
+      <c r="P117">
+        <v>66</v>
+      </c>
+      <c r="Q117">
+        <v>66</v>
+      </c>
+      <c r="R117">
+        <v>55.761000000000003</v>
+      </c>
+      <c r="S117">
+        <v>297.12700000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>806</v>
       </c>
@@ -49560,8 +49857,29 @@
       <c r="K118">
         <v>142.46600000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="M118">
+        <v>28</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>59</v>
+      </c>
+      <c r="P118">
+        <v>59</v>
+      </c>
+      <c r="Q118">
+        <v>59</v>
+      </c>
+      <c r="R118">
+        <v>55.613</v>
+      </c>
+      <c r="S118">
+        <v>298.15499999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>807</v>
       </c>
@@ -49592,8 +49910,630 @@
       <c r="K119">
         <v>141.72499999999999</v>
       </c>
+      <c r="M119">
+        <v>27</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>60</v>
+      </c>
+      <c r="P119">
+        <v>60</v>
+      </c>
+      <c r="Q119">
+        <v>60</v>
+      </c>
+      <c r="R119">
+        <v>55.381</v>
+      </c>
+      <c r="S119">
+        <v>296.27999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M120">
+        <v>26</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>57</v>
+      </c>
+      <c r="P120">
+        <v>57</v>
+      </c>
+      <c r="Q120">
+        <v>57</v>
+      </c>
+      <c r="R120">
+        <v>55.338999999999999</v>
+      </c>
+      <c r="S120">
+        <v>291.01799999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M121">
+        <v>25</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>60</v>
+      </c>
+      <c r="P121">
+        <v>60</v>
+      </c>
+      <c r="Q121">
+        <v>60</v>
+      </c>
+      <c r="R121">
+        <v>55.222999999999999</v>
+      </c>
+      <c r="S121">
+        <v>295.25200000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M122">
+        <v>24</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>52</v>
+      </c>
+      <c r="P122">
+        <v>52</v>
+      </c>
+      <c r="Q122">
+        <v>52</v>
+      </c>
+      <c r="R122">
+        <v>55.095999999999997</v>
+      </c>
+      <c r="S122">
+        <v>297.30799999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M123">
+        <v>23</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>56</v>
+      </c>
+      <c r="P123">
+        <v>56</v>
+      </c>
+      <c r="Q123">
+        <v>56</v>
+      </c>
+      <c r="R123">
+        <v>54.747999999999998</v>
+      </c>
+      <c r="S123">
+        <v>298.33699999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M124">
+        <v>22</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>60</v>
+      </c>
+      <c r="P124">
+        <v>60</v>
+      </c>
+      <c r="Q124">
+        <v>60</v>
+      </c>
+      <c r="R124">
+        <v>54.241</v>
+      </c>
+      <c r="S124">
+        <v>298.63900000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M125">
+        <v>21</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>49</v>
+      </c>
+      <c r="P125">
+        <v>49</v>
+      </c>
+      <c r="Q125">
+        <v>49</v>
+      </c>
+      <c r="R125">
+        <v>54.23</v>
+      </c>
+      <c r="S125">
+        <v>300.09100000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M126">
+        <v>20</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>56</v>
+      </c>
+      <c r="P126">
+        <v>56</v>
+      </c>
+      <c r="Q126">
+        <v>56</v>
+      </c>
+      <c r="R126">
+        <v>54.23</v>
+      </c>
+      <c r="S126">
+        <v>300.69600000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M127">
+        <v>19</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>53</v>
+      </c>
+      <c r="P127">
+        <v>53</v>
+      </c>
+      <c r="Q127">
+        <v>53</v>
+      </c>
+      <c r="R127">
+        <v>54.125</v>
+      </c>
+      <c r="S127">
+        <v>298.94200000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="M128">
+        <v>18</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>63</v>
+      </c>
+      <c r="P128">
+        <v>63</v>
+      </c>
+      <c r="Q128">
+        <v>63</v>
+      </c>
+      <c r="R128">
+        <v>54.103999999999999</v>
+      </c>
+      <c r="S128">
+        <v>299.48599999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M129">
+        <v>17</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>56</v>
+      </c>
+      <c r="P129">
+        <v>56</v>
+      </c>
+      <c r="Q129">
+        <v>56</v>
+      </c>
+      <c r="R129">
+        <v>53.186</v>
+      </c>
+      <c r="S129">
+        <v>298.57900000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M130">
+        <v>16</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>55</v>
+      </c>
+      <c r="P130">
+        <v>55</v>
+      </c>
+      <c r="Q130">
+        <v>55</v>
+      </c>
+      <c r="R130">
+        <v>52.984999999999999</v>
+      </c>
+      <c r="S130">
+        <v>304.99</v>
+      </c>
+    </row>
+    <row r="131" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M131">
+        <v>15</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>58</v>
+      </c>
+      <c r="P131">
+        <v>58</v>
+      </c>
+      <c r="Q131">
+        <v>58</v>
+      </c>
+      <c r="R131">
+        <v>52.953000000000003</v>
+      </c>
+      <c r="S131">
+        <v>302.32900000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M132">
+        <v>14</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>57</v>
+      </c>
+      <c r="P132">
+        <v>57</v>
+      </c>
+      <c r="Q132">
+        <v>57</v>
+      </c>
+      <c r="R132">
+        <v>52.69</v>
+      </c>
+      <c r="S132">
+        <v>301.60300000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M133">
+        <v>13</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>48</v>
+      </c>
+      <c r="P133">
+        <v>48</v>
+      </c>
+      <c r="Q133">
+        <v>48</v>
+      </c>
+      <c r="R133">
+        <v>52.478000000000002</v>
+      </c>
+      <c r="S133">
+        <v>302.93299999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M134">
+        <v>12</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>51</v>
+      </c>
+      <c r="P134">
+        <v>51</v>
+      </c>
+      <c r="Q134">
+        <v>51</v>
+      </c>
+      <c r="R134">
+        <v>52.246000000000002</v>
+      </c>
+      <c r="S134">
+        <v>303.05399999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M135">
+        <v>11</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>56</v>
+      </c>
+      <c r="P135">
+        <v>56</v>
+      </c>
+      <c r="Q135">
+        <v>56</v>
+      </c>
+      <c r="R135">
+        <v>51.981999999999999</v>
+      </c>
+      <c r="S135">
+        <v>301.3</v>
+      </c>
+    </row>
+    <row r="136" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M136">
+        <v>10</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>56</v>
+      </c>
+      <c r="P136">
+        <v>56</v>
+      </c>
+      <c r="Q136">
+        <v>56</v>
+      </c>
+      <c r="R136">
+        <v>51.993000000000002</v>
+      </c>
+      <c r="S136">
+        <v>307.04599999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M137">
+        <v>9</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>57</v>
+      </c>
+      <c r="P137">
+        <v>57</v>
+      </c>
+      <c r="Q137">
+        <v>57</v>
+      </c>
+      <c r="R137">
+        <v>51.866</v>
+      </c>
+      <c r="S137">
+        <v>305.65499999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M138">
+        <v>8</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>56</v>
+      </c>
+      <c r="P138">
+        <v>56</v>
+      </c>
+      <c r="Q138">
+        <v>56</v>
+      </c>
+      <c r="R138">
+        <v>51.781999999999996</v>
+      </c>
+      <c r="S138">
+        <v>303.29599999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M139">
+        <v>7</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>56</v>
+      </c>
+      <c r="P139">
+        <v>56</v>
+      </c>
+      <c r="Q139">
+        <v>56</v>
+      </c>
+      <c r="R139">
+        <v>51.475999999999999</v>
+      </c>
+      <c r="S139">
+        <v>301.3</v>
+      </c>
+    </row>
+    <row r="140" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M140">
+        <v>6</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>56</v>
+      </c>
+      <c r="P140">
+        <v>56</v>
+      </c>
+      <c r="Q140">
+        <v>56</v>
+      </c>
+      <c r="R140">
+        <v>51.381</v>
+      </c>
+      <c r="S140">
+        <v>303.90100000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M141">
+        <v>5</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>57</v>
+      </c>
+      <c r="P141">
+        <v>57</v>
+      </c>
+      <c r="Q141">
+        <v>57</v>
+      </c>
+      <c r="R141">
+        <v>51.307000000000002</v>
+      </c>
+      <c r="S141">
+        <v>304.26400000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M142">
+        <v>4</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>62</v>
+      </c>
+      <c r="P142">
+        <v>62</v>
+      </c>
+      <c r="Q142">
+        <v>62</v>
+      </c>
+      <c r="R142">
+        <v>50.938000000000002</v>
+      </c>
+      <c r="S142">
+        <v>299.90899999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>56</v>
+      </c>
+      <c r="P143">
+        <v>56</v>
+      </c>
+      <c r="Q143">
+        <v>56</v>
+      </c>
+      <c r="R143">
+        <v>50.737000000000002</v>
+      </c>
+      <c r="S143">
+        <v>300.69600000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>55</v>
+      </c>
+      <c r="P144">
+        <v>55</v>
+      </c>
+      <c r="Q144">
+        <v>55</v>
+      </c>
+      <c r="R144">
+        <v>50.662999999999997</v>
+      </c>
+      <c r="S144">
+        <v>302.99400000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="13:19" x14ac:dyDescent="0.6">
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>57</v>
+      </c>
+      <c r="P145">
+        <v>57</v>
+      </c>
+      <c r="Q145">
+        <v>57</v>
+      </c>
+      <c r="R145">
+        <v>50.347000000000001</v>
+      </c>
+      <c r="S145">
+        <v>303.65899999999999</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M104:S145">
+    <sortCondition descending="1" ref="M104:M145"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49602,8 +50542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087B127-488B-4040-8438-14EA97B0549B}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q9:R24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -49725,8 +50665,8 @@
       <c r="H9">
         <v>116.96</v>
       </c>
-      <c r="I9" t="s">
-        <v>969</v>
+      <c r="I9">
+        <v>302.94</v>
       </c>
       <c r="J9" s="5">
         <v>42.957500000000003</v>
@@ -49784,8 +50724,8 @@
       <c r="H10">
         <v>115.01</v>
       </c>
-      <c r="I10" t="s">
-        <v>969</v>
+      <c r="I10">
+        <v>302.64400000000001</v>
       </c>
       <c r="J10" s="5">
         <v>42.957500000000003</v>
@@ -49844,8 +50784,8 @@
       <c r="H11">
         <v>115.62</v>
       </c>
-      <c r="I11" t="s">
-        <v>969</v>
+      <c r="I11">
+        <v>303.08800000000002</v>
       </c>
       <c r="J11" s="5">
         <v>42.957500000000003</v>
@@ -49904,8 +50844,8 @@
       <c r="H12">
         <v>116.96</v>
       </c>
-      <c r="I12" t="s">
-        <v>969</v>
+      <c r="I12">
+        <v>303.72899999999998</v>
       </c>
       <c r="J12" s="5">
         <v>42.957500000000003</v>
@@ -49964,8 +50904,8 @@
       <c r="H13">
         <v>117.36</v>
       </c>
-      <c r="I13" t="s">
-        <v>969</v>
+      <c r="I13">
+        <v>305.30700000000002</v>
       </c>
       <c r="J13" s="5">
         <v>42.957500000000003</v>
@@ -50024,8 +50964,8 @@
       <c r="H14">
         <v>115.62</v>
       </c>
-      <c r="I14" t="s">
-        <v>969</v>
+      <c r="I14">
+        <v>296.72699999999998</v>
       </c>
       <c r="J14" s="5">
         <v>42.957500000000003</v>
@@ -50084,8 +51024,8 @@
       <c r="H15">
         <v>113.63</v>
       </c>
-      <c r="I15" t="s">
-        <v>969</v>
+      <c r="I15">
+        <v>298.69900000000001</v>
       </c>
       <c r="J15" s="5">
         <v>42.957500000000003</v>
@@ -50144,8 +51084,8 @@
       <c r="H16">
         <v>114.35</v>
       </c>
-      <c r="I16" t="s">
-        <v>969</v>
+      <c r="I16">
+        <v>306.68799999999999</v>
       </c>
       <c r="J16" s="5">
         <v>42.957500000000003</v>
@@ -50204,8 +51144,8 @@
       <c r="H17">
         <v>107.93</v>
       </c>
-      <c r="I17" t="s">
-        <v>969</v>
+      <c r="I17">
+        <v>307.41500000000002</v>
       </c>
       <c r="J17" s="5">
         <v>42.957500000000003</v>
@@ -50264,8 +51204,8 @@
       <c r="H18">
         <v>105.11</v>
       </c>
-      <c r="I18" t="s">
-        <v>969</v>
+      <c r="I18">
+        <v>309.97399999999999</v>
       </c>
       <c r="J18" s="5">
         <v>42.957500000000003</v>
@@ -50324,8 +51264,8 @@
       <c r="H19">
         <v>105.88</v>
       </c>
-      <c r="I19" t="s">
-        <v>969</v>
+      <c r="I19">
+        <v>311.971</v>
       </c>
       <c r="J19" s="5">
         <v>42.957500000000003</v>
@@ -50384,8 +51324,8 @@
       <c r="H20">
         <v>108.18</v>
       </c>
-      <c r="I20" t="s">
-        <v>969</v>
+      <c r="I20">
+        <v>310.38400000000001</v>
       </c>
       <c r="J20" s="5">
         <v>42.957500000000003</v>
@@ -50444,8 +51384,8 @@
       <c r="H21">
         <v>107.16</v>
       </c>
-      <c r="I21" t="s">
-        <v>969</v>
+      <c r="I21">
+        <v>310.74200000000002</v>
       </c>
       <c r="J21" s="5">
         <v>42.957500000000003</v>
@@ -50504,8 +51444,8 @@
       <c r="H22">
         <v>105.75</v>
       </c>
-      <c r="I22" t="s">
-        <v>969</v>
+      <c r="I22">
+        <v>309.71800000000002</v>
       </c>
       <c r="J22" s="5">
         <v>42.957500000000003</v>
@@ -50564,8 +51504,8 @@
       <c r="H23">
         <v>101.15</v>
       </c>
-      <c r="I23" t="s">
-        <v>969</v>
+      <c r="I23">
+        <v>307.97800000000001</v>
       </c>
       <c r="J23" s="5">
         <v>42.957500000000003</v>
@@ -50624,8 +51564,8 @@
       <c r="H24">
         <v>103.83</v>
       </c>
-      <c r="I24" t="s">
-        <v>969</v>
+      <c r="I24">
+        <v>309.411</v>
       </c>
       <c r="J24" s="5">
         <v>42.957500000000003</v>
@@ -51928,7 +52868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4ECFFA-8AC8-4048-AA07-B0D2503C1E8B}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -61055,8 +61995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE38D98-9064-4846-BB7F-8B771A284B01}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -69999,11 +70939,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65599BFC-5B06-4EDE-87C3-57BB3CCD5BDB}">
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -70018,10 +70958,10 @@
     <col min="9" max="9" width="18.09765625" customWidth="1"/>
     <col min="11" max="11" width="21.046875" customWidth="1"/>
     <col min="19" max="19" width="15.6484375" customWidth="1"/>
-    <col min="20" max="25" width="22.796875" customWidth="1"/>
+    <col min="20" max="26" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.6">
       <c r="B1" s="1" t="s">
         <v>652</v>
       </c>
@@ -70094,11 +71034,14 @@
       <c r="Y1" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AA1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -70171,8 +71114,11 @@
       <c r="X2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.6">
+      <c r="Z2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -70241,8 +71187,11 @@
         <v>672</v>
       </c>
       <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.6">
+      <c r="Z3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A19" si="0">A3+1</f>
         <v>3</v>
@@ -70311,18 +71260,21 @@
         <v>672</v>
       </c>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA4" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AC4" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AD4" t="s">
         <v>991</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -70370,14 +71322,14 @@
       <c r="U5" t="s">
         <v>695</v>
       </c>
-      <c r="Z5" s="61" t="s">
+      <c r="AA5" s="61" t="s">
         <v>697</v>
       </c>
-      <c r="AA5" s="61"/>
       <c r="AB5" s="61"/>
       <c r="AC5" s="61"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.6">
+      <c r="AD5" s="61"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -70445,8 +71397,11 @@
       <c r="X6" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.6">
+      <c r="Z6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -70511,8 +71466,11 @@
       <c r="X7" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.6">
+      <c r="Z7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -70577,8 +71535,11 @@
       <c r="X8" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.6">
+      <c r="Z8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -70647,10 +71608,13 @@
         <v>672</v>
       </c>
       <c r="Z9" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -70719,10 +71683,13 @@
         <v>672</v>
       </c>
       <c r="Z10" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA10" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -70792,17 +71759,18 @@
       </c>
       <c r="X11" s="63"/>
       <c r="Y11" s="63"/>
-      <c r="Z11" t="s">
+      <c r="Z11" s="63"/>
+      <c r="AA11" t="s">
         <v>731</v>
       </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AH11" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -70868,16 +71836,19 @@
         <v>672</v>
       </c>
       <c r="Z12" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA12" t="s">
         <v>732</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -70940,16 +71911,19 @@
         <v>672</v>
       </c>
       <c r="Z13" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA13" t="s">
         <v>622</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -71017,14 +71991,17 @@
       <c r="Y14" t="s">
         <v>672</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="Z14" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH14" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -71068,17 +72045,17 @@
       <c r="U15" s="62" t="s">
         <v>672</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>887</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AH15" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -71146,14 +72123,17 @@
       <c r="Y16" t="s">
         <v>672</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="Z16" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH16" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -71218,14 +72198,17 @@
       <c r="X17" t="s">
         <v>672</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="Z17" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH17" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -71290,23 +72273,26 @@
       <c r="X18" t="s">
         <v>672</v>
       </c>
-      <c r="Z18" s="63" t="s">
+      <c r="Z18" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA18" s="63" t="s">
         <v>1200</v>
       </c>
-      <c r="AA18" s="63"/>
       <c r="AB18" s="63"/>
       <c r="AC18" s="63"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="63"/>
       <c r="AF18" s="63"/>
-      <c r="AG18" s="1" t="s">
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -71374,14 +72360,17 @@
       <c r="X19" t="s">
         <v>672</v>
       </c>
-      <c r="AG19" s="1" t="s">
+      <c r="Z19" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH19" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -71448,14 +72437,17 @@
       <c r="X20" t="s">
         <v>672</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="Z20" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH20" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A21">
         <f>A20+1</f>
         <v>20</v>
@@ -71523,14 +72515,17 @@
       <c r="X21" t="s">
         <v>672</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="Z21" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH21" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A22">
         <f t="shared" ref="A22:A26" si="1">A21+1</f>
         <v>21</v>
@@ -71598,14 +72593,17 @@
       <c r="X22" t="s">
         <v>672</v>
       </c>
-      <c r="AG22" s="1" t="s">
+      <c r="Z22" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH22" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -71649,15 +72647,32 @@
       <c r="N23" t="s">
         <v>672</v>
       </c>
-      <c r="R23" s="17"/>
-      <c r="AG23" s="1" t="s">
+      <c r="P23" t="s">
+        <v>672</v>
+      </c>
+      <c r="R23" t="s">
+        <v>672</v>
+      </c>
+      <c r="S23" t="s">
+        <v>672</v>
+      </c>
+      <c r="T23" t="s">
+        <v>672</v>
+      </c>
+      <c r="W23" t="s">
+        <v>695</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH23" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -71696,14 +72711,14 @@
       <c r="M24" s="15" t="s">
         <v>1148</v>
       </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AH24" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -71729,14 +72744,14 @@
       <c r="N25" t="s">
         <v>1155</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AH25" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.6">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -71780,14 +72795,14 @@
       <c r="N26" t="s">
         <v>1179</v>
       </c>
-      <c r="AG26" s="1" t="s">
+      <c r="AH26" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.6">
       <c r="B27" s="52" t="s">
         <v>1180</v>
       </c>
@@ -71822,7 +72837,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.6">
       <c r="B28" s="10" t="s">
         <v>1187</v>
       </c>
@@ -71860,7 +72875,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.6">
       <c r="B29" s="10" t="s">
         <v>1188</v>
       </c>

--- a/RawMaterials/data/LocalAdaptionDataGathering.xlsx
+++ b/RawMaterials/data/LocalAdaptionDataGathering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26E34D4-3DBB-4A63-B6F2-7E61C925E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5CD860-0613-41D2-A44D-E7DD86209EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="23" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="41" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,11 @@
     <sheet name="NA POPUBA Soola...lly etal 2013" sheetId="44" r:id="rId41"/>
     <sheet name="NA POPUBA Soola...lly etal 2015" sheetId="45" r:id="rId42"/>
     <sheet name="EA POPURE Soola...lly etal 2015" sheetId="46" r:id="rId43"/>
-    <sheet name="TSUGHE Kuser and Ching 1981" sheetId="29" state="hidden" r:id="rId44"/>
+    <sheet name="ALT NG ABIAMA Worrall 1983" sheetId="47" r:id="rId44"/>
+    <sheet name="ALT EG PSEMEN Chmura 2005" sheetId="48" r:id="rId45"/>
+    <sheet name="ALT EA QUEPET Alberto et al 201" sheetId="49" r:id="rId46"/>
+    <sheet name="ALT EX XXXXXX Vitasse et al 200" sheetId="50" r:id="rId47"/>
+    <sheet name="TSUGHE Kuser and Ching 1981" sheetId="29" state="hidden" r:id="rId48"/>
   </sheets>
   <definedNames>
     <definedName name="_ENREF_29" localSheetId="8">'NA ALNURU Hamann et al. 1998'!$A$2</definedName>
@@ -86,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6734" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7874" uniqueCount="1308">
   <si>
     <t>ID1</t>
   </si>
@@ -5171,6 +5175,312 @@
   <si>
     <t>percentage_distribution_overlap</t>
   </si>
+  <si>
+    <t>Latitudinal Studies</t>
+  </si>
+  <si>
+    <t>Temperature - Bud-Burst Relationships in Amabilis and Subalpine fir Provenance Tests Replicated at Different Elevations</t>
+  </si>
+  <si>
+    <t>Worrall, John</t>
+  </si>
+  <si>
+    <t>Abies amabilis</t>
+  </si>
+  <si>
+    <t>can include as a latitudinal study..</t>
+  </si>
+  <si>
+    <t>hmmm… this is not necessarily an altitudinal study… at least not the kind we are looking for… we want plants from provenances from diffo elevations but this one is plants from diffo provenances being planted at diffo elevation…</t>
+  </si>
+  <si>
+    <t>Phenology differs among Norway spruce populations in relation to local variation in altitude of maternal stands in the Beskidy Mountains</t>
+  </si>
+  <si>
+    <t>Chmura, Daniel</t>
+  </si>
+  <si>
+    <t>the variation in elevation isnt very big… can still scrape doy from the table, though</t>
+  </si>
+  <si>
+    <t>Genetic Differentiation of Douglas-Fir Populations from the Northern Rocky Mountains</t>
+  </si>
+  <si>
+    <t>Gerald E. Rehfeldt</t>
+  </si>
+  <si>
+    <t>Canada/USA</t>
+  </si>
+  <si>
+    <t>Czech Republic/Poland</t>
+  </si>
+  <si>
+    <t>Quercus petraea</t>
+  </si>
+  <si>
+    <t>Alberto et al</t>
+  </si>
+  <si>
+    <t>Adaptive responses for seed and leaf phenology in natural populations of sessile oak along an altitudinal gradient</t>
+  </si>
+  <si>
+    <t>can scrape from figure 1</t>
+  </si>
+  <si>
+    <t>Quantifying phenological plasticity to temperature in two temperate tree species</t>
+  </si>
+  <si>
+    <t>Vitasse, Y., S. Delzon, C. C. Bresson, R. Michalet, and A. Kremer. </t>
+  </si>
+  <si>
+    <t>Altitudinal differentiation in growth and phenology among populations of temperate tree species in a common garden</t>
+  </si>
+  <si>
+    <t>Vitasse, Y., S. Delzon, E. Dufrene, J.-Y. Pontailler, J.-M. Louvet, A. Kremer</t>
+  </si>
+  <si>
+    <t>Leaf phenology sensitivity to temperature in European trees: do within-species populations exhibit similar response?</t>
+  </si>
+  <si>
+    <t>Peng Li, Jean Beaulieu, and Jean Bousquet</t>
+  </si>
+  <si>
+    <t>Genetic structure and patterns of genetic variation among populations in eastern white spruce (Picea glauca)</t>
+  </si>
+  <si>
+    <t>Peng Li, Jean Beaulieu, Gaétan Daoust, and Ariane Plourde</t>
+  </si>
+  <si>
+    <t>Patterns of adaptive genetic variation in eastern white pine (Pinus strobus) from Quebec</t>
+  </si>
+  <si>
+    <t>Acevedo Rodríguez, Ramiro; Vargas Hernández, J. Jesús; López Upton, Javier; Velázquez Mendoza,</t>
+  </si>
+  <si>
+    <t>efecto de la procedencia geográfica y de la fertilización en la fenología del brote terminal en plántulas de pseudotsuga sp.</t>
+  </si>
+  <si>
+    <t>Vitasse, Y.,  Caroline C. Bresson, Antoine Kremer, Richard Michalet and Sylvain Delzon</t>
+  </si>
+  <si>
+    <t>has doy against MAT -&gt; relate MAT to altitude</t>
+  </si>
+  <si>
+    <t>France/Spain</t>
+  </si>
+  <si>
+    <t>Abies alba</t>
+  </si>
+  <si>
+    <t>Acer Pseudoplatanus</t>
+  </si>
+  <si>
+    <t>Faxinus excelsior</t>
+  </si>
+  <si>
+    <t>Ilex aquifolium</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>ALT NG ABIAMA Worrall 1983</t>
+  </si>
+  <si>
+    <t>ALT EA QUEPET Alberto et al 2011</t>
+  </si>
+  <si>
+    <t>ALT EX XXXXXX Vitasse et al 2009</t>
+  </si>
+  <si>
+    <t>John Worrall</t>
+  </si>
+  <si>
+    <t>prov_identifier</t>
+  </si>
+  <si>
+    <t>garden_continent</t>
+  </si>
+  <si>
+    <t>prov_garden_continent</t>
+  </si>
+  <si>
+    <t>garden_identifier</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>Mt. Thurston</t>
+  </si>
+  <si>
+    <t>Anderson River</t>
+  </si>
+  <si>
+    <t>Pitt River</t>
+  </si>
+  <si>
+    <t>Klinaklini</t>
+  </si>
+  <si>
+    <t>San Josef River</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>*diffo garden elevation</t>
+  </si>
+  <si>
+    <t>prov1</t>
+  </si>
+  <si>
+    <t>prov2</t>
+  </si>
+  <si>
+    <t>prov5</t>
+  </si>
+  <si>
+    <t>prov6</t>
+  </si>
+  <si>
+    <t>prov7</t>
+  </si>
+  <si>
+    <t>prov8</t>
+  </si>
+  <si>
+    <t>prov9</t>
+  </si>
+  <si>
+    <t>prov10</t>
+  </si>
+  <si>
+    <t>prov12</t>
+  </si>
+  <si>
+    <t>prov13</t>
+  </si>
+  <si>
+    <t>prov14</t>
+  </si>
+  <si>
+    <t>prov15</t>
+  </si>
+  <si>
+    <t>prov17</t>
+  </si>
+  <si>
+    <t>prov18</t>
+  </si>
+  <si>
+    <t>prov19</t>
+  </si>
+  <si>
+    <t>prov20</t>
+  </si>
+  <si>
+    <t>prov21</t>
+  </si>
+  <si>
+    <t>prov22</t>
+  </si>
+  <si>
+    <t>prov23</t>
+  </si>
+  <si>
+    <t>*same coordinates but diffo elevations</t>
+  </si>
+  <si>
+    <t>ALT EG PSEMEN Chmura 2005</t>
+  </si>
+  <si>
+    <t>Luz valley</t>
+  </si>
+  <si>
+    <t>Laveyron</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Ibos</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Che`ze</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>Ge`dre</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>Pe´gue`re</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>Ossau valley</t>
+  </si>
+  <si>
+    <t>Josbaig</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>Bager</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>Le Hourcq</t>
+  </si>
+  <si>
+    <t>O8</t>
+  </si>
+  <si>
+    <t>Gabas</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>Artouste</t>
+  </si>
+  <si>
+    <t>O16</t>
+  </si>
+  <si>
+    <t>2 diffo gardens</t>
+  </si>
+  <si>
+    <t>two gardens we have here</t>
+  </si>
+  <si>
+    <t>Acer pseudoplatanus</t>
+  </si>
+  <si>
+    <t>well there is senescence data…. Ughh</t>
+  </si>
 </sst>
 </file>
 
@@ -5179,7 +5489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5370,8 +5680,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="63"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5450,8 +5780,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -5514,6 +5850,24 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF231F20"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF231F20"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -5670,7 +6024,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5779,6 +6133,60 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -50542,8 +50950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087B127-488B-4040-8438-14EA97B0549B}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -61996,7 +62404,7 @@
   <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B6" sqref="B6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -69127,6 +69535,7713 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8007BB-4A19-4BD4-AF8F-78391DA97EB9}">
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C2">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="M5" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D7">
+        <v>49.083333333333336</v>
+      </c>
+      <c r="E7">
+        <v>121.83333333333333</v>
+      </c>
+      <c r="F7">
+        <v>1430</v>
+      </c>
+      <c r="I7">
+        <v>143.946</v>
+      </c>
+      <c r="J7" t="s">
+        <v>969</v>
+      </c>
+      <c r="K7">
+        <v>49.75</v>
+      </c>
+      <c r="L7">
+        <v>123</v>
+      </c>
+      <c r="M7" s="17">
+        <v>430</v>
+      </c>
+      <c r="N7">
+        <v>1981</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U7" t="s">
+        <v>689</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
+        <v>838</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D8">
+        <v>49.666666666666664</v>
+      </c>
+      <c r="E8">
+        <v>121.33333333333333</v>
+      </c>
+      <c r="F8">
+        <v>1200</v>
+      </c>
+      <c r="I8">
+        <v>143.18700000000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>969</v>
+      </c>
+      <c r="K8">
+        <v>49.75</v>
+      </c>
+      <c r="L8">
+        <v>123</v>
+      </c>
+      <c r="M8" s="17">
+        <v>430</v>
+      </c>
+      <c r="N8">
+        <v>1981</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U8" t="s">
+        <v>689</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D9">
+        <v>49.466666666666669</v>
+      </c>
+      <c r="E9">
+        <v>122.83333333333333</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>148.17500000000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>969</v>
+      </c>
+      <c r="K9">
+        <v>49.75</v>
+      </c>
+      <c r="L9">
+        <v>123</v>
+      </c>
+      <c r="M9" s="17">
+        <v>430</v>
+      </c>
+      <c r="N9">
+        <v>1981</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U9" t="s">
+        <v>689</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D10">
+        <v>51.166666666666664</v>
+      </c>
+      <c r="E10">
+        <v>125.75</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>149.36699999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>969</v>
+      </c>
+      <c r="K10">
+        <v>49.75</v>
+      </c>
+      <c r="L10">
+        <v>123</v>
+      </c>
+      <c r="M10" s="17">
+        <v>430</v>
+      </c>
+      <c r="N10">
+        <v>1981</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U10" t="s">
+        <v>689</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D11">
+        <v>50.716666666666669</v>
+      </c>
+      <c r="E11">
+        <v>128.16666666666666</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>152.62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>969</v>
+      </c>
+      <c r="K11">
+        <v>49.75</v>
+      </c>
+      <c r="L11">
+        <v>123</v>
+      </c>
+      <c r="M11" s="17">
+        <v>430</v>
+      </c>
+      <c r="N11">
+        <v>1981</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U11" t="s">
+        <v>689</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A12" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D12">
+        <v>49.083333333333336</v>
+      </c>
+      <c r="E12">
+        <v>121.83333333333333</v>
+      </c>
+      <c r="F12">
+        <v>1430</v>
+      </c>
+      <c r="I12">
+        <v>164.548</v>
+      </c>
+      <c r="J12" t="s">
+        <v>969</v>
+      </c>
+      <c r="K12">
+        <v>49.75</v>
+      </c>
+      <c r="L12">
+        <v>123</v>
+      </c>
+      <c r="M12" s="17">
+        <v>780</v>
+      </c>
+      <c r="N12">
+        <v>1981</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U12" t="s">
+        <v>689</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A13" t="s">
+        <v>838</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D13">
+        <v>49.666666666666664</v>
+      </c>
+      <c r="E13">
+        <v>121.33333333333333</v>
+      </c>
+      <c r="F13">
+        <v>1200</v>
+      </c>
+      <c r="I13">
+        <v>161.62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>969</v>
+      </c>
+      <c r="K13">
+        <v>49.75</v>
+      </c>
+      <c r="L13">
+        <v>123</v>
+      </c>
+      <c r="M13" s="17">
+        <v>780</v>
+      </c>
+      <c r="N13">
+        <v>1981</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U13" t="s">
+        <v>689</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A14" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D14">
+        <v>49.466666666666669</v>
+      </c>
+      <c r="E14">
+        <v>122.83333333333333</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>169.428</v>
+      </c>
+      <c r="J14" t="s">
+        <v>969</v>
+      </c>
+      <c r="K14">
+        <v>49.75</v>
+      </c>
+      <c r="L14">
+        <v>123</v>
+      </c>
+      <c r="M14" s="17">
+        <v>780</v>
+      </c>
+      <c r="N14">
+        <v>1981</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U14" t="s">
+        <v>689</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A15" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D15">
+        <v>51.166666666666664</v>
+      </c>
+      <c r="E15">
+        <v>125.75</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+      <c r="I15">
+        <v>171.922</v>
+      </c>
+      <c r="J15" t="s">
+        <v>969</v>
+      </c>
+      <c r="K15">
+        <v>49.75</v>
+      </c>
+      <c r="L15">
+        <v>123</v>
+      </c>
+      <c r="M15" s="17">
+        <v>780</v>
+      </c>
+      <c r="N15">
+        <v>1981</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U15" t="s">
+        <v>689</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A16" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D16">
+        <v>50.716666666666669</v>
+      </c>
+      <c r="E16">
+        <v>128.16666666666666</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>174.30699999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>969</v>
+      </c>
+      <c r="K16">
+        <v>49.75</v>
+      </c>
+      <c r="L16">
+        <v>123</v>
+      </c>
+      <c r="M16" s="17">
+        <v>780</v>
+      </c>
+      <c r="N16">
+        <v>1981</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U16" t="s">
+        <v>689</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D17">
+        <v>49.083333333333336</v>
+      </c>
+      <c r="E17">
+        <v>121.83333333333333</v>
+      </c>
+      <c r="F17">
+        <v>1430</v>
+      </c>
+      <c r="I17">
+        <v>178.536</v>
+      </c>
+      <c r="J17" t="s">
+        <v>969</v>
+      </c>
+      <c r="K17">
+        <v>49.75</v>
+      </c>
+      <c r="L17">
+        <v>123</v>
+      </c>
+      <c r="M17" s="17">
+        <v>1100</v>
+      </c>
+      <c r="N17">
+        <v>1981</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U17" t="s">
+        <v>689</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A18" t="s">
+        <v>838</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D18">
+        <v>49.666666666666664</v>
+      </c>
+      <c r="E18">
+        <v>121.33333333333333</v>
+      </c>
+      <c r="F18">
+        <v>1200</v>
+      </c>
+      <c r="I18">
+        <v>177.994</v>
+      </c>
+      <c r="J18" t="s">
+        <v>969</v>
+      </c>
+      <c r="K18">
+        <v>49.75</v>
+      </c>
+      <c r="L18">
+        <v>123</v>
+      </c>
+      <c r="M18" s="17">
+        <v>1100</v>
+      </c>
+      <c r="N18">
+        <v>1981</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U18" t="s">
+        <v>689</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D19">
+        <v>49.466666666666669</v>
+      </c>
+      <c r="E19">
+        <v>122.83333333333333</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <v>182.76499999999999</v>
+      </c>
+      <c r="J19" t="s">
+        <v>969</v>
+      </c>
+      <c r="K19">
+        <v>49.75</v>
+      </c>
+      <c r="L19">
+        <v>123</v>
+      </c>
+      <c r="M19" s="17">
+        <v>1100</v>
+      </c>
+      <c r="N19">
+        <v>1981</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U19" t="s">
+        <v>689</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A20" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D20">
+        <v>51.166666666666664</v>
+      </c>
+      <c r="E20">
+        <v>125.75</v>
+      </c>
+      <c r="F20">
+        <v>300</v>
+      </c>
+      <c r="I20">
+        <v>183.63300000000001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>969</v>
+      </c>
+      <c r="K20">
+        <v>49.75</v>
+      </c>
+      <c r="L20">
+        <v>123</v>
+      </c>
+      <c r="M20" s="17">
+        <v>1100</v>
+      </c>
+      <c r="N20">
+        <v>1981</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U20" t="s">
+        <v>689</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A21" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D21">
+        <v>50.716666666666669</v>
+      </c>
+      <c r="E21">
+        <v>128.16666666666666</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>185.476</v>
+      </c>
+      <c r="J21" t="s">
+        <v>969</v>
+      </c>
+      <c r="K21">
+        <v>49.75</v>
+      </c>
+      <c r="L21">
+        <v>123</v>
+      </c>
+      <c r="M21" s="17">
+        <v>1100</v>
+      </c>
+      <c r="N21">
+        <v>1981</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U21" t="s">
+        <v>689</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A22" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D22">
+        <v>49.083333333333336</v>
+      </c>
+      <c r="E22">
+        <v>121.83333333333333</v>
+      </c>
+      <c r="F22">
+        <v>1430</v>
+      </c>
+      <c r="I22">
+        <v>202.733</v>
+      </c>
+      <c r="J22" t="s">
+        <v>969</v>
+      </c>
+      <c r="K22">
+        <v>49.75</v>
+      </c>
+      <c r="L22">
+        <v>123</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1400</v>
+      </c>
+      <c r="N22">
+        <v>1981</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U22" t="s">
+        <v>689</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A23" t="s">
+        <v>838</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D23">
+        <v>49.666666666666664</v>
+      </c>
+      <c r="E23">
+        <v>121.33333333333333</v>
+      </c>
+      <c r="F23">
+        <v>1200</v>
+      </c>
+      <c r="I23">
+        <v>200.48400000000001</v>
+      </c>
+      <c r="J23" t="s">
+        <v>969</v>
+      </c>
+      <c r="K23">
+        <v>49.75</v>
+      </c>
+      <c r="L23">
+        <v>123</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1400</v>
+      </c>
+      <c r="N23">
+        <v>1981</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U23" t="s">
+        <v>689</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A24" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D24">
+        <v>49.466666666666669</v>
+      </c>
+      <c r="E24">
+        <v>122.83333333333333</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="I24">
+        <v>204.51</v>
+      </c>
+      <c r="J24" t="s">
+        <v>969</v>
+      </c>
+      <c r="K24">
+        <v>49.75</v>
+      </c>
+      <c r="L24">
+        <v>123</v>
+      </c>
+      <c r="M24" s="17">
+        <v>1400</v>
+      </c>
+      <c r="N24">
+        <v>1981</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U24" t="s">
+        <v>689</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A25" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D25">
+        <v>51.166666666666664</v>
+      </c>
+      <c r="E25">
+        <v>125.75</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>206.07</v>
+      </c>
+      <c r="J25" t="s">
+        <v>969</v>
+      </c>
+      <c r="K25">
+        <v>49.75</v>
+      </c>
+      <c r="L25">
+        <v>123</v>
+      </c>
+      <c r="M25" s="17">
+        <v>1400</v>
+      </c>
+      <c r="N25">
+        <v>1981</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U25" t="s">
+        <v>689</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A26" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D26">
+        <v>50.716666666666669</v>
+      </c>
+      <c r="E26">
+        <v>128.16666666666666</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>206.86799999999999</v>
+      </c>
+      <c r="J26" t="s">
+        <v>969</v>
+      </c>
+      <c r="K26">
+        <v>49.75</v>
+      </c>
+      <c r="L26">
+        <v>123</v>
+      </c>
+      <c r="M26" s="17">
+        <v>1400</v>
+      </c>
+      <c r="N26">
+        <v>1981</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U26" t="s">
+        <v>689</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M33:S37">
+    <sortCondition descending="1" ref="M33:M37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8746E5DD-1128-4387-8FA5-03B1EA4DB419}">
+  <dimension ref="A1:X46"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="3" max="3" width="13.046875" customWidth="1"/>
+    <col min="24" max="24" width="10.046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1">
+        <v>2005</v>
+      </c>
+      <c r="E1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H1" t="s">
+        <v>689</v>
+      </c>
+      <c r="I1" t="s">
+        <v>928</v>
+      </c>
+      <c r="X1" s="72"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="X2" s="72"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="E3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="X3" s="72"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="X4" s="72"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B5" s="70">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D5" s="17">
+        <f>35/60+49</f>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E5" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F5" s="73">
+        <v>700</v>
+      </c>
+      <c r="I5" s="72">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>969</v>
+      </c>
+      <c r="K5">
+        <f>52+15/60</f>
+        <v>52.25</v>
+      </c>
+      <c r="L5">
+        <f>17+4/60</f>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M5">
+        <v>70</v>
+      </c>
+      <c r="N5">
+        <v>2000</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>665</v>
+      </c>
+      <c r="R5" t="s">
+        <v>665</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T5" t="s">
+        <v>928</v>
+      </c>
+      <c r="U5" t="s">
+        <v>689</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X5" s="72"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B6" s="70">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D27" si="0">35/60+49</f>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E6" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F6" s="73">
+        <v>760</v>
+      </c>
+      <c r="I6" s="72">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>969</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K27" si="1">52+15/60</f>
+        <v>52.25</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L27" si="2">17+4/60</f>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M6">
+        <v>70</v>
+      </c>
+      <c r="N6">
+        <v>2000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>665</v>
+      </c>
+      <c r="R6" t="s">
+        <v>665</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T6" t="s">
+        <v>928</v>
+      </c>
+      <c r="U6" t="s">
+        <v>689</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X6" s="72"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B7" s="70">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E7" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F7" s="73">
+        <v>740</v>
+      </c>
+      <c r="I7" s="72">
+        <v>136</v>
+      </c>
+      <c r="J7" t="s">
+        <v>969</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M7">
+        <v>70</v>
+      </c>
+      <c r="N7">
+        <v>2000</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>665</v>
+      </c>
+      <c r="R7" t="s">
+        <v>665</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T7" t="s">
+        <v>928</v>
+      </c>
+      <c r="U7" t="s">
+        <v>689</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X7" s="72"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B8" s="70">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E8" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F8" s="73">
+        <v>700</v>
+      </c>
+      <c r="I8" s="72">
+        <v>126</v>
+      </c>
+      <c r="J8" t="s">
+        <v>969</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>2000</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>665</v>
+      </c>
+      <c r="R8" t="s">
+        <v>665</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T8" t="s">
+        <v>928</v>
+      </c>
+      <c r="U8" t="s">
+        <v>689</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X8" s="72"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B9" s="70">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E9" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F9" s="73">
+        <v>670</v>
+      </c>
+      <c r="I9" s="72">
+        <v>133</v>
+      </c>
+      <c r="J9" t="s">
+        <v>969</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M9">
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <v>2000</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>665</v>
+      </c>
+      <c r="R9" t="s">
+        <v>665</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T9" t="s">
+        <v>928</v>
+      </c>
+      <c r="U9" t="s">
+        <v>689</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X9" s="72"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B10" s="70">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E10" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F10" s="73">
+        <v>800</v>
+      </c>
+      <c r="I10" s="72">
+        <v>134</v>
+      </c>
+      <c r="J10" t="s">
+        <v>969</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M10">
+        <v>70</v>
+      </c>
+      <c r="N10">
+        <v>2000</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>665</v>
+      </c>
+      <c r="R10" t="s">
+        <v>665</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T10" t="s">
+        <v>928</v>
+      </c>
+      <c r="U10" t="s">
+        <v>689</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X10" s="72"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B11" s="70">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E11" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F11" s="73">
+        <v>560</v>
+      </c>
+      <c r="I11" s="72">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s">
+        <v>969</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M11">
+        <v>70</v>
+      </c>
+      <c r="N11">
+        <v>2000</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>665</v>
+      </c>
+      <c r="R11" t="s">
+        <v>665</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T11" t="s">
+        <v>928</v>
+      </c>
+      <c r="U11" t="s">
+        <v>689</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X11" s="72"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B12" s="70">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E12" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F12" s="73">
+        <v>540</v>
+      </c>
+      <c r="I12" s="72">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>969</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M12">
+        <v>70</v>
+      </c>
+      <c r="N12">
+        <v>2000</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>665</v>
+      </c>
+      <c r="R12" t="s">
+        <v>665</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T12" t="s">
+        <v>928</v>
+      </c>
+      <c r="U12" t="s">
+        <v>689</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X12" s="72"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B13" s="70">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E13" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F13" s="73">
+        <v>630</v>
+      </c>
+      <c r="I13" s="72">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>969</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M13">
+        <v>70</v>
+      </c>
+      <c r="N13">
+        <v>2000</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>665</v>
+      </c>
+      <c r="R13" t="s">
+        <v>665</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T13" t="s">
+        <v>928</v>
+      </c>
+      <c r="U13" t="s">
+        <v>689</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X13" s="72"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B14" s="70">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E14" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F14" s="73">
+        <v>580</v>
+      </c>
+      <c r="I14" s="72">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>969</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M14">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>2000</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>665</v>
+      </c>
+      <c r="R14" t="s">
+        <v>665</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T14" t="s">
+        <v>928</v>
+      </c>
+      <c r="U14" t="s">
+        <v>689</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X14" s="72"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B15" s="70">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E15" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F15" s="73">
+        <v>660</v>
+      </c>
+      <c r="I15" s="72">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>969</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M15">
+        <v>70</v>
+      </c>
+      <c r="N15">
+        <v>2000</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>665</v>
+      </c>
+      <c r="R15" t="s">
+        <v>665</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T15" t="s">
+        <v>928</v>
+      </c>
+      <c r="U15" t="s">
+        <v>689</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X15" s="72"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B16" s="70">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E16" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F16" s="73">
+        <v>720</v>
+      </c>
+      <c r="I16" s="72">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>969</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M16">
+        <v>70</v>
+      </c>
+      <c r="N16">
+        <v>2000</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>665</v>
+      </c>
+      <c r="R16" t="s">
+        <v>665</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T16" t="s">
+        <v>928</v>
+      </c>
+      <c r="U16" t="s">
+        <v>689</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X16" s="72"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B17" s="70">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E17" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F17" s="73">
+        <v>760</v>
+      </c>
+      <c r="I17" s="72">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>969</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M17">
+        <v>70</v>
+      </c>
+      <c r="N17">
+        <v>2000</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>665</v>
+      </c>
+      <c r="R17" t="s">
+        <v>665</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T17" t="s">
+        <v>928</v>
+      </c>
+      <c r="U17" t="s">
+        <v>689</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X17" s="72"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B18" s="70">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E18" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F18" s="73">
+        <v>630</v>
+      </c>
+      <c r="I18" s="72">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>969</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M18">
+        <v>70</v>
+      </c>
+      <c r="N18">
+        <v>2000</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>665</v>
+      </c>
+      <c r="R18" t="s">
+        <v>665</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T18" t="s">
+        <v>928</v>
+      </c>
+      <c r="U18" t="s">
+        <v>689</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X18" s="72"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B19" s="70">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E19" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F19" s="73">
+        <v>630</v>
+      </c>
+      <c r="I19" s="72">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
+        <v>969</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M19">
+        <v>70</v>
+      </c>
+      <c r="N19">
+        <v>2000</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>665</v>
+      </c>
+      <c r="R19" t="s">
+        <v>665</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T19" t="s">
+        <v>928</v>
+      </c>
+      <c r="U19" t="s">
+        <v>689</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X19" s="72"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B20" s="70">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E20" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F20" s="73">
+        <v>630</v>
+      </c>
+      <c r="I20" s="72">
+        <v>128</v>
+      </c>
+      <c r="J20" t="s">
+        <v>969</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M20">
+        <v>70</v>
+      </c>
+      <c r="N20">
+        <v>2000</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>665</v>
+      </c>
+      <c r="R20" t="s">
+        <v>665</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T20" t="s">
+        <v>928</v>
+      </c>
+      <c r="U20" t="s">
+        <v>689</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X20" s="72"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E21" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F21" s="73">
+        <v>595</v>
+      </c>
+      <c r="I21" s="72">
+        <v>129</v>
+      </c>
+      <c r="J21" t="s">
+        <v>969</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M21">
+        <v>70</v>
+      </c>
+      <c r="N21">
+        <v>2000</v>
+      </c>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" t="s">
+        <v>665</v>
+      </c>
+      <c r="R21" t="s">
+        <v>665</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T21" t="s">
+        <v>928</v>
+      </c>
+      <c r="U21" t="s">
+        <v>689</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X21" s="72"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E22" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F22" s="73">
+        <v>660</v>
+      </c>
+      <c r="I22" s="72">
+        <v>133</v>
+      </c>
+      <c r="J22" t="s">
+        <v>969</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M22">
+        <v>70</v>
+      </c>
+      <c r="N22">
+        <v>2000</v>
+      </c>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" t="s">
+        <v>665</v>
+      </c>
+      <c r="R22" t="s">
+        <v>665</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T22" t="s">
+        <v>928</v>
+      </c>
+      <c r="U22" t="s">
+        <v>689</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X22" s="72"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E23" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F23" s="73">
+        <v>650</v>
+      </c>
+      <c r="I23" s="72">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>969</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M23">
+        <v>70</v>
+      </c>
+      <c r="N23">
+        <v>2000</v>
+      </c>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" t="s">
+        <v>665</v>
+      </c>
+      <c r="R23" t="s">
+        <v>665</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T23" t="s">
+        <v>928</v>
+      </c>
+      <c r="U23" t="s">
+        <v>689</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X23" s="72"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E24" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F24" s="73">
+        <v>650</v>
+      </c>
+      <c r="I24" s="72">
+        <v>120</v>
+      </c>
+      <c r="J24" t="s">
+        <v>969</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M24">
+        <v>70</v>
+      </c>
+      <c r="N24">
+        <v>2000</v>
+      </c>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" t="s">
+        <v>665</v>
+      </c>
+      <c r="R24" t="s">
+        <v>665</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T24" t="s">
+        <v>928</v>
+      </c>
+      <c r="U24" t="s">
+        <v>689</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E25" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F25" s="73">
+        <v>640</v>
+      </c>
+      <c r="I25" s="72">
+        <v>127</v>
+      </c>
+      <c r="J25" t="s">
+        <v>969</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M25">
+        <v>70</v>
+      </c>
+      <c r="N25">
+        <v>2000</v>
+      </c>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" t="s">
+        <v>665</v>
+      </c>
+      <c r="R25" t="s">
+        <v>665</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T25" t="s">
+        <v>928</v>
+      </c>
+      <c r="U25" t="s">
+        <v>689</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E26" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F26" s="73">
+        <v>640</v>
+      </c>
+      <c r="I26" s="72">
+        <v>134</v>
+      </c>
+      <c r="J26" t="s">
+        <v>969</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M26">
+        <v>70</v>
+      </c>
+      <c r="N26">
+        <v>2000</v>
+      </c>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" t="s">
+        <v>665</v>
+      </c>
+      <c r="R26" t="s">
+        <v>665</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T26" t="s">
+        <v>928</v>
+      </c>
+      <c r="U26" t="s">
+        <v>689</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="E27" s="17">
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F27" s="73">
+        <v>750</v>
+      </c>
+      <c r="I27" s="72">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>969</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>52.25</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>17.066666666666666</v>
+      </c>
+      <c r="M27">
+        <v>70</v>
+      </c>
+      <c r="N27">
+        <v>2000</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" t="s">
+        <v>665</v>
+      </c>
+      <c r="R27" t="s">
+        <v>665</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T27" t="s">
+        <v>928</v>
+      </c>
+      <c r="U27" t="s">
+        <v>689</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A39" s="70"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A40" s="70"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A41" s="70"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A42" s="70"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A43" s="70"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="I45" s="65"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="I46" s="69"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:C43">
+    <sortCondition ref="A21:A43"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E83E56-DB4E-4206-BA2D-F4BEF913238D}">
+  <dimension ref="A1:AF25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="E1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Z1" s="74">
+        <v>43</v>
+      </c>
+      <c r="AA1">
+        <v>45</v>
+      </c>
+      <c r="AB1">
+        <f>Z1+AA1/60</f>
+        <v>43.75</v>
+      </c>
+      <c r="AD1" s="78">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>13</v>
+      </c>
+      <c r="AF1">
+        <f>AD1+AE1/60</f>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H2" t="s">
+        <v>670</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Z2" s="75">
+        <v>43</v>
+      </c>
+      <c r="AA2">
+        <v>15</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AB11" si="0">Z2+AA2/60</f>
+        <v>43.25</v>
+      </c>
+      <c r="AD2" s="77">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AF11" si="1">AD2+AE2/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="N3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="Z3" s="75">
+        <v>43</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>43.133333333333333</v>
+      </c>
+      <c r="AD3" s="77">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="Z4" s="75">
+        <v>42</v>
+      </c>
+      <c r="AA4">
+        <v>55</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>42.916666666666664</v>
+      </c>
+      <c r="AD4" s="77">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="A5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E5">
+        <v>43.75</v>
+      </c>
+      <c r="F5">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="G5">
+        <v>131</v>
+      </c>
+      <c r="J5">
+        <v>101.646</v>
+      </c>
+      <c r="K5" t="s">
+        <v>969</v>
+      </c>
+      <c r="L5">
+        <f>44+44/60</f>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M5">
+        <f>46/60</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O5">
+        <v>2009</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>665</v>
+      </c>
+      <c r="R5" t="s">
+        <v>665</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U5" t="s">
+        <v>670</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z5" s="75">
+        <v>42</v>
+      </c>
+      <c r="AA5">
+        <v>47</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>42.783333333333331</v>
+      </c>
+      <c r="AD5" s="77">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E6">
+        <v>43.216666666666669</v>
+      </c>
+      <c r="F6">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G6">
+        <v>259</v>
+      </c>
+      <c r="J6">
+        <v>102.663</v>
+      </c>
+      <c r="K6" t="s">
+        <v>969</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L14" si="2">44+44/60</f>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:N21" si="3">46/60</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O6">
+        <v>2009</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>665</v>
+      </c>
+      <c r="R6" t="s">
+        <v>665</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U6" t="s">
+        <v>670</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z6" s="75">
+        <v>42</v>
+      </c>
+      <c r="AA6">
+        <v>47</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>42.783333333333331</v>
+      </c>
+      <c r="AD6" s="77">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E7">
+        <v>43.25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>387</v>
+      </c>
+      <c r="J7">
+        <v>105.86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>969</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O7">
+        <v>2009</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>665</v>
+      </c>
+      <c r="R7" t="s">
+        <v>665</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U7" t="s">
+        <v>670</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z7" s="80">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>52</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="0"/>
+        <v>42.866666666666667</v>
+      </c>
+      <c r="AD7" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="10">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E8">
+        <v>43.116666666666667</v>
+      </c>
+      <c r="F8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>422</v>
+      </c>
+      <c r="J8">
+        <v>111.09</v>
+      </c>
+      <c r="K8" t="s">
+        <v>969</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O8">
+        <v>2009</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>665</v>
+      </c>
+      <c r="R8" t="s">
+        <v>665</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U8" t="s">
+        <v>670</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z8" s="75">
+        <v>43</v>
+      </c>
+      <c r="AA8">
+        <v>13</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>43.216666666666669</v>
+      </c>
+      <c r="AD8" s="77">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>44</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E9">
+        <v>42.916666666666664</v>
+      </c>
+      <c r="F9">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G9">
+        <v>803</v>
+      </c>
+      <c r="J9">
+        <v>106.877</v>
+      </c>
+      <c r="K9" t="s">
+        <v>969</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O9">
+        <v>2009</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>665</v>
+      </c>
+      <c r="R9" t="s">
+        <v>665</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U9" t="s">
+        <v>670</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z9" s="80">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="10">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="AD9" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>26</v>
+      </c>
+      <c r="AF9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B10" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E10">
+        <v>42.9</v>
+      </c>
+      <c r="F10">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G10">
+        <v>841</v>
+      </c>
+      <c r="J10">
+        <v>106.877</v>
+      </c>
+      <c r="K10" t="s">
+        <v>969</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O10">
+        <v>2009</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>665</v>
+      </c>
+      <c r="R10" t="s">
+        <v>665</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U10" t="s">
+        <v>670</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z10" s="75">
+        <v>42</v>
+      </c>
+      <c r="AA10">
+        <v>53</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>42.883333333333333</v>
+      </c>
+      <c r="AD10" s="77">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>25</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E11">
+        <v>42.883333333333333</v>
+      </c>
+      <c r="F11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G11">
+        <v>1194</v>
+      </c>
+      <c r="J11">
+        <v>108.184</v>
+      </c>
+      <c r="K11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O11">
+        <v>2009</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>665</v>
+      </c>
+      <c r="R11" t="s">
+        <v>665</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U11" t="s">
+        <v>670</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z11" s="76">
+        <v>42</v>
+      </c>
+      <c r="AA11">
+        <v>53</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>42.883333333333333</v>
+      </c>
+      <c r="AD11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>24</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E12">
+        <v>42.783333333333331</v>
+      </c>
+      <c r="F12">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G12">
+        <v>1235</v>
+      </c>
+      <c r="J12">
+        <v>113.26900000000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>969</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O12">
+        <v>2009</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>665</v>
+      </c>
+      <c r="R12" t="s">
+        <v>665</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U12" t="s">
+        <v>670</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E13">
+        <v>42.883333333333333</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+      <c r="G13">
+        <v>1614</v>
+      </c>
+      <c r="J13">
+        <v>108.32899999999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>969</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O13">
+        <v>2009</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>665</v>
+      </c>
+      <c r="R13" t="s">
+        <v>665</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U13" t="s">
+        <v>670</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B14" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E14">
+        <v>42.866666666666667</v>
+      </c>
+      <c r="F14">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="G14">
+        <v>1630</v>
+      </c>
+      <c r="J14">
+        <v>114.286</v>
+      </c>
+      <c r="K14" t="s">
+        <v>969</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O14">
+        <v>2009</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>665</v>
+      </c>
+      <c r="R14" t="s">
+        <v>665</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U14" t="s">
+        <v>670</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="A15" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E15">
+        <v>43.75</v>
+      </c>
+      <c r="F15">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="G15">
+        <v>131</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15">
+        <v>101.41800000000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>969</v>
+      </c>
+      <c r="L15" s="10">
+        <f>44+34/60</f>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M15" s="10">
+        <f>16/60</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N15" s="10">
+        <v>23</v>
+      </c>
+      <c r="O15">
+        <v>2009</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" t="s">
+        <v>665</v>
+      </c>
+      <c r="R15" t="s">
+        <v>665</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U15" t="s">
+        <v>670</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.6">
+      <c r="B16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E16">
+        <v>43.216666666666669</v>
+      </c>
+      <c r="F16">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G16">
+        <v>259</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16">
+        <v>102.572</v>
+      </c>
+      <c r="K16" t="s">
+        <v>969</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" ref="L16:L24" si="4">44+34/60</f>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" ref="M16:M24" si="5">16/60</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N16" s="10">
+        <v>23</v>
+      </c>
+      <c r="O16">
+        <v>2009</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" t="s">
+        <v>665</v>
+      </c>
+      <c r="R16" t="s">
+        <v>665</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U16" t="s">
+        <v>670</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E17">
+        <v>43.25</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>387</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17">
+        <v>107.188</v>
+      </c>
+      <c r="K17" t="s">
+        <v>969</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="4"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N17" s="10">
+        <v>23</v>
+      </c>
+      <c r="O17">
+        <v>2009</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" t="s">
+        <v>665</v>
+      </c>
+      <c r="R17" t="s">
+        <v>665</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U17" t="s">
+        <v>670</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E18">
+        <v>43.116666666666667</v>
+      </c>
+      <c r="F18">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>422</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18">
+        <v>104.014</v>
+      </c>
+      <c r="K18" t="s">
+        <v>969</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="4"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N18" s="10">
+        <v>23</v>
+      </c>
+      <c r="O18">
+        <v>2009</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" t="s">
+        <v>665</v>
+      </c>
+      <c r="R18" t="s">
+        <v>665</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U18" t="s">
+        <v>670</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E19">
+        <v>42.916666666666664</v>
+      </c>
+      <c r="F19">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G19">
+        <v>803</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19">
+        <v>112.38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>969</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="4"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N19" s="10">
+        <v>23</v>
+      </c>
+      <c r="O19">
+        <v>2009</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" t="s">
+        <v>665</v>
+      </c>
+      <c r="R19" t="s">
+        <v>665</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U19" t="s">
+        <v>670</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B20" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E20">
+        <v>42.9</v>
+      </c>
+      <c r="F20">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G20">
+        <v>841</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20">
+        <v>104.88</v>
+      </c>
+      <c r="K20" t="s">
+        <v>969</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="4"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N20" s="10">
+        <v>23</v>
+      </c>
+      <c r="O20">
+        <v>2009</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" t="s">
+        <v>665</v>
+      </c>
+      <c r="R20" t="s">
+        <v>665</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U20" t="s">
+        <v>670</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A21" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E21">
+        <v>42.883333333333333</v>
+      </c>
+      <c r="F21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G21">
+        <v>1194</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21">
+        <v>107.33199999999999</v>
+      </c>
+      <c r="K21" t="s">
+        <v>969</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="4"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N21" s="10">
+        <v>23</v>
+      </c>
+      <c r="O21">
+        <v>2009</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" t="s">
+        <v>665</v>
+      </c>
+      <c r="R21" t="s">
+        <v>665</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U21" t="s">
+        <v>670</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B22" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E22">
+        <v>42.783333333333331</v>
+      </c>
+      <c r="F22">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G22">
+        <v>1235</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22">
+        <v>111.947</v>
+      </c>
+      <c r="K22" t="s">
+        <v>969</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="4"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N22" s="10">
+        <v>23</v>
+      </c>
+      <c r="O22">
+        <v>2009</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" t="s">
+        <v>665</v>
+      </c>
+      <c r="R22" t="s">
+        <v>665</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U22" t="s">
+        <v>670</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B23" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E23">
+        <v>42.883333333333333</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+      <c r="G23">
+        <v>1614</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23">
+        <v>110.79300000000001</v>
+      </c>
+      <c r="K23" t="s">
+        <v>969</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" si="4"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N23" s="10">
+        <v>23</v>
+      </c>
+      <c r="O23">
+        <v>2009</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" t="s">
+        <v>665</v>
+      </c>
+      <c r="R23" t="s">
+        <v>665</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U23" t="s">
+        <v>670</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B24" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E24">
+        <v>42.866666666666667</v>
+      </c>
+      <c r="F24">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="G24">
+        <v>1630</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24">
+        <v>115.12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>969</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="4"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="5"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N24" s="10">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>2009</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" t="s">
+        <v>665</v>
+      </c>
+      <c r="R24" t="s">
+        <v>665</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U24" t="s">
+        <v>670</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O12:T23">
+    <sortCondition ref="T12:T23"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1F583E-77B8-411A-90EA-FE4C539903E4}">
+  <dimension ref="A1:W55"/>
+  <sheetViews>
+    <sheetView topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1">
+        <v>2009</v>
+      </c>
+      <c r="C1">
+        <v>2007</v>
+      </c>
+      <c r="D1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B2" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="J3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E5" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1551</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6.16</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>96.856999999999999</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K55" si="0">44+34/60</f>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" ref="L5:L55" si="1">16/60</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M5" s="4">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" t="s">
+        <v>665</v>
+      </c>
+      <c r="R5" t="s">
+        <v>665</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E6" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1604</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6.56</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>95.804000000000002</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M6" s="4">
+        <v>23</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" t="s">
+        <v>665</v>
+      </c>
+      <c r="R6" t="s">
+        <v>665</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E7" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1190</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>95.453000000000003</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M7" s="4">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" t="s">
+        <v>665</v>
+      </c>
+      <c r="R7" t="s">
+        <v>665</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E8" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1186</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7.44</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>94.664000000000001</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M8" s="4">
+        <v>23</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" t="s">
+        <v>665</v>
+      </c>
+      <c r="R8" t="s">
+        <v>665</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E9" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>840</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10.31</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>96.155000000000001</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M9" s="4">
+        <v>23</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" t="s">
+        <v>665</v>
+      </c>
+      <c r="R9" t="s">
+        <v>665</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E10" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>824</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10.37</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>95.015000000000001</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M10" s="4">
+        <v>23</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" t="s">
+        <v>665</v>
+      </c>
+      <c r="R10" t="s">
+        <v>665</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E11" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1190</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>136.73400000000001</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M11" s="4">
+        <v>23</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" t="s">
+        <v>665</v>
+      </c>
+      <c r="R11" t="s">
+        <v>665</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E12" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1186</v>
+      </c>
+      <c r="G12" s="83">
+        <v>7.44</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>126.633</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M12" s="4">
+        <v>23</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" t="s">
+        <v>665</v>
+      </c>
+      <c r="R12" t="s">
+        <v>665</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E13" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>815</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9.73</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>125.42100000000001</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M13" s="4">
+        <v>23</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" t="s">
+        <v>665</v>
+      </c>
+      <c r="R13" t="s">
+        <v>665</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E14" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>824</v>
+      </c>
+      <c r="G14" s="83">
+        <v>10.37</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>136.33000000000001</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M14" s="4">
+        <v>23</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" t="s">
+        <v>665</v>
+      </c>
+      <c r="R14" t="s">
+        <v>665</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E15" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>148</v>
+      </c>
+      <c r="G15" s="83">
+        <v>11.58</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>121.785</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M15" s="4">
+        <v>23</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" t="s">
+        <v>665</v>
+      </c>
+      <c r="R15" t="s">
+        <v>665</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E16" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F16" s="4">
+        <v>422</v>
+      </c>
+      <c r="G16" s="83">
+        <v>12.43</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>127.03700000000001</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M16" s="4">
+        <v>23</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" t="s">
+        <v>665</v>
+      </c>
+      <c r="R16" t="s">
+        <v>665</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E17" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>427</v>
+      </c>
+      <c r="G17" s="4">
+        <v>12.48</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>124.613</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M17" s="4">
+        <v>23</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" t="s">
+        <v>665</v>
+      </c>
+      <c r="R17" t="s">
+        <v>665</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E18" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>131</v>
+      </c>
+      <c r="G18" s="4">
+        <v>13.04</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>130.26900000000001</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M18" s="4">
+        <v>23</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" t="s">
+        <v>665</v>
+      </c>
+      <c r="R18" t="s">
+        <v>665</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E19" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1630</v>
+      </c>
+      <c r="G19" s="4">
+        <v>7.68</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>110.45099999999999</v>
+      </c>
+      <c r="J19">
+        <v>309.15899999999999</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M19" s="4">
+        <v>23</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" t="s">
+        <v>665</v>
+      </c>
+      <c r="R19" t="s">
+        <v>665</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E20" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1349</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>108.16</v>
+      </c>
+      <c r="J20">
+        <v>304.64600000000002</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M20" s="4">
+        <v>23</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" t="s">
+        <v>665</v>
+      </c>
+      <c r="R20" t="s">
+        <v>665</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E21" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>841</v>
+      </c>
+      <c r="G21" s="4">
+        <v>9.0400000000000009</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>104.61799999999999</v>
+      </c>
+      <c r="J21">
+        <v>304.11500000000001</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M21" s="4">
+        <v>23</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" t="s">
+        <v>665</v>
+      </c>
+      <c r="R21" t="s">
+        <v>665</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E22" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1194</v>
+      </c>
+      <c r="G22" s="4">
+        <v>9.0400000000000009</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>107.32599999999999</v>
+      </c>
+      <c r="J22">
+        <v>301.19499999999999</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M22" s="4">
+        <v>23</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" t="s">
+        <v>665</v>
+      </c>
+      <c r="R22" t="s">
+        <v>665</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E23" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1235</v>
+      </c>
+      <c r="G23" s="4">
+        <v>9.73</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <v>110.24299999999999</v>
+      </c>
+      <c r="J23">
+        <v>305.17700000000002</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M23" s="4">
+        <v>23</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" t="s">
+        <v>665</v>
+      </c>
+      <c r="R23" t="s">
+        <v>665</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E24" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1082</v>
+      </c>
+      <c r="G24" s="4">
+        <v>9.82</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>108.99299999999999</v>
+      </c>
+      <c r="J24">
+        <v>310.221</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M24" s="4">
+        <v>23</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" t="s">
+        <v>665</v>
+      </c>
+      <c r="R24" t="s">
+        <v>665</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E25" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F25" s="4">
+        <v>803</v>
+      </c>
+      <c r="G25" s="4">
+        <v>10.96</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>108.36799999999999</v>
+      </c>
+      <c r="J25">
+        <v>304.64600000000002</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M25" s="4">
+        <v>23</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" t="s">
+        <v>665</v>
+      </c>
+      <c r="R25" t="s">
+        <v>665</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E26" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F26" s="4">
+        <v>627</v>
+      </c>
+      <c r="G26" s="4">
+        <v>11.83</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <v>107.74299999999999</v>
+      </c>
+      <c r="J26">
+        <v>299.86700000000002</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M26" s="4">
+        <v>23</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" t="s">
+        <v>665</v>
+      </c>
+      <c r="R26" t="s">
+        <v>665</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E27" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F27" s="4">
+        <v>422</v>
+      </c>
+      <c r="G27" s="4">
+        <v>12.27</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4">
+        <v>106.285</v>
+      </c>
+      <c r="J27">
+        <v>301.19499999999999</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M27" s="4">
+        <v>23</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" t="s">
+        <v>665</v>
+      </c>
+      <c r="R27" t="s">
+        <v>665</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E28" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>427</v>
+      </c>
+      <c r="G28" s="4">
+        <v>12.33</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
+        <v>105.035</v>
+      </c>
+      <c r="J28">
+        <v>304.91199999999998</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M28" s="4">
+        <v>23</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" t="s">
+        <v>665</v>
+      </c>
+      <c r="R28" t="s">
+        <v>665</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E29" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F29" s="4">
+        <v>387</v>
+      </c>
+      <c r="G29" s="4">
+        <v>12.450000000000001</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4">
+        <v>103.16</v>
+      </c>
+      <c r="J29">
+        <v>300.39800000000002</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M29" s="4">
+        <v>23</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" t="s">
+        <v>665</v>
+      </c>
+      <c r="R29" t="s">
+        <v>665</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E30" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F30" s="4">
+        <v>131</v>
+      </c>
+      <c r="G30" s="4">
+        <v>12.89</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
+        <v>102.95099999999999</v>
+      </c>
+      <c r="J30">
+        <v>299.60199999999998</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L30" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M30" s="4">
+        <v>23</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" t="s">
+        <v>665</v>
+      </c>
+      <c r="R30" t="s">
+        <v>665</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E31" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1533</v>
+      </c>
+      <c r="G31" s="4">
+        <v>670</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4">
+        <v>118.523</v>
+      </c>
+      <c r="J31">
+        <v>296.12400000000002</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L31" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M31" s="4">
+        <v>23</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" t="s">
+        <v>665</v>
+      </c>
+      <c r="R31" t="s">
+        <v>665</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E32" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F32" s="83">
+        <v>1186</v>
+      </c>
+      <c r="G32" s="4">
+        <v>744</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <v>120.54900000000001</v>
+      </c>
+      <c r="J32">
+        <v>307.28699999999998</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L32" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M32" s="4">
+        <v>23</v>
+      </c>
+      <c r="N32" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" t="s">
+        <v>665</v>
+      </c>
+      <c r="R32" t="s">
+        <v>665</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E33" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1250</v>
+      </c>
+      <c r="G33" s="4">
+        <v>812</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4">
+        <v>118.776</v>
+      </c>
+      <c r="J33">
+        <v>302.63600000000002</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L33" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M33" s="4">
+        <v>23</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" t="s">
+        <v>665</v>
+      </c>
+      <c r="R33" t="s">
+        <v>665</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E34" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F34" s="4">
+        <v>885</v>
+      </c>
+      <c r="G34" s="4">
+        <v>986</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <v>113.96599999999999</v>
+      </c>
+      <c r="J34">
+        <v>297.98399999999998</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L34" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M34" s="4">
+        <v>23</v>
+      </c>
+      <c r="N34" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" t="s">
+        <v>665</v>
+      </c>
+      <c r="R34" t="s">
+        <v>665</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E35" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F35" s="83">
+        <v>824</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1037</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <v>115.485</v>
+      </c>
+      <c r="J35">
+        <v>297.51900000000001</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L35" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M35" s="4">
+        <v>23</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" t="s">
+        <v>665</v>
+      </c>
+      <c r="R35" t="s">
+        <v>665</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E36" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F36" s="4">
+        <v>481</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1072</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <v>110.675</v>
+      </c>
+      <c r="J36">
+        <v>300.77499999999998</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M36" s="4">
+        <v>23</v>
+      </c>
+      <c r="N36" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" t="s">
+        <v>665</v>
+      </c>
+      <c r="R36" t="s">
+        <v>665</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E37" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F37" s="4">
+        <v>450</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1143</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <v>111.435</v>
+      </c>
+      <c r="J37">
+        <v>307.28699999999998</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L37" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M37" s="4">
+        <v>23</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" t="s">
+        <v>665</v>
+      </c>
+      <c r="R37" t="s">
+        <v>665</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E38" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F38" s="4">
+        <v>148</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1158</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4">
+        <v>112.194</v>
+      </c>
+      <c r="J38">
+        <v>301.70499999999998</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L38" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M38" s="4">
+        <v>23</v>
+      </c>
+      <c r="N38" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" t="s">
+        <v>665</v>
+      </c>
+      <c r="R38" t="s">
+        <v>665</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E39" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F39" s="4">
+        <v>130</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1279</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <v>108.65</v>
+      </c>
+      <c r="J39">
+        <v>301.24</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L39" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M39" s="4">
+        <v>23</v>
+      </c>
+      <c r="N39" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" t="s">
+        <v>665</v>
+      </c>
+      <c r="R39" t="s">
+        <v>665</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E40" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1533</v>
+      </c>
+      <c r="G40" s="4">
+        <v>670</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <v>111.351</v>
+      </c>
+      <c r="J40">
+        <v>309.28100000000001</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L40" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M40" s="4">
+        <v>23</v>
+      </c>
+      <c r="N40" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" t="s">
+        <v>665</v>
+      </c>
+      <c r="R40" t="s">
+        <v>665</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E41" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1186</v>
+      </c>
+      <c r="G41" s="4">
+        <v>744</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>110.642</v>
+      </c>
+      <c r="J41">
+        <v>307.32</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L41" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M41" s="4">
+        <v>23</v>
+      </c>
+      <c r="N41" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" t="s">
+        <v>665</v>
+      </c>
+      <c r="R41" t="s">
+        <v>665</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E42" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1250</v>
+      </c>
+      <c r="G42" s="4">
+        <v>812</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <v>106.744</v>
+      </c>
+      <c r="J42">
+        <v>308.10500000000002</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L42" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M42" s="4">
+        <v>23</v>
+      </c>
+      <c r="N42" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" t="s">
+        <v>665</v>
+      </c>
+      <c r="R42" t="s">
+        <v>665</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E43" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F43" s="4">
+        <v>885</v>
+      </c>
+      <c r="G43" s="4">
+        <v>986</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <v>110.819</v>
+      </c>
+      <c r="J43">
+        <v>309.28100000000001</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M43" s="4">
+        <v>23</v>
+      </c>
+      <c r="N43" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" t="s">
+        <v>665</v>
+      </c>
+      <c r="R43" t="s">
+        <v>665</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E44" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F44" s="4">
+        <v>824</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1037</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4">
+        <v>111.17400000000001</v>
+      </c>
+      <c r="J44">
+        <v>307.32</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L44" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M44" s="4">
+        <v>23</v>
+      </c>
+      <c r="N44" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" t="s">
+        <v>665</v>
+      </c>
+      <c r="R44" t="s">
+        <v>665</v>
+      </c>
+      <c r="S44" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E45" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F45" s="4">
+        <v>481</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1072</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4">
+        <v>107.63</v>
+      </c>
+      <c r="J45">
+        <v>303.399</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M45" s="4">
+        <v>23</v>
+      </c>
+      <c r="N45" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" t="s">
+        <v>665</v>
+      </c>
+      <c r="R45" t="s">
+        <v>665</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E46" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F46" s="4">
+        <v>450</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1143</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4">
+        <v>109.491</v>
+      </c>
+      <c r="J46">
+        <v>308.10500000000002</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M46" s="4">
+        <v>23</v>
+      </c>
+      <c r="N46" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" t="s">
+        <v>665</v>
+      </c>
+      <c r="R46" t="s">
+        <v>665</v>
+      </c>
+      <c r="S46" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E47" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1551</v>
+      </c>
+      <c r="G47" s="4">
+        <v>605</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4">
+        <v>114.28100000000001</v>
+      </c>
+      <c r="J47">
+        <v>283.98599999999999</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M47" s="4">
+        <v>23</v>
+      </c>
+      <c r="N47" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" t="s">
+        <v>665</v>
+      </c>
+      <c r="R47" t="s">
+        <v>665</v>
+      </c>
+      <c r="S47" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E48" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1604</v>
+      </c>
+      <c r="G48" s="4">
+        <v>646</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4">
+        <v>115.604</v>
+      </c>
+      <c r="J48">
+        <v>289.20299999999997</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L48" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M48" s="4">
+        <v>23</v>
+      </c>
+      <c r="N48" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" t="s">
+        <v>665</v>
+      </c>
+      <c r="R48" t="s">
+        <v>665</v>
+      </c>
+      <c r="S48" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E49" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1190</v>
+      </c>
+      <c r="G49" s="4">
+        <v>659</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4">
+        <v>114.23</v>
+      </c>
+      <c r="J49">
+        <v>280.072</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M49" s="4">
+        <v>23</v>
+      </c>
+      <c r="N49" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" t="s">
+        <v>665</v>
+      </c>
+      <c r="R49" t="s">
+        <v>665</v>
+      </c>
+      <c r="S49" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E50" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F50" s="4">
+        <v>773</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1024</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4">
+        <v>116.113</v>
+      </c>
+      <c r="J50">
+        <v>292.68099999999998</v>
+      </c>
+      <c r="K50" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L50" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M50" s="4">
+        <v>23</v>
+      </c>
+      <c r="N50" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" t="s">
+        <v>665</v>
+      </c>
+      <c r="R50" t="s">
+        <v>665</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E51" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F51" s="4">
+        <v>824</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
+        <v>119.167</v>
+      </c>
+      <c r="J51">
+        <v>287.464</v>
+      </c>
+      <c r="K51" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L51" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M51" s="4">
+        <v>23</v>
+      </c>
+      <c r="N51" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" t="s">
+        <v>665</v>
+      </c>
+      <c r="R51" t="s">
+        <v>665</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E52" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F52" s="4">
+        <v>488</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1137</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4">
+        <v>117.691</v>
+      </c>
+      <c r="J52">
+        <v>283.55099999999999</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L52" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M52" s="4">
+        <v>23</v>
+      </c>
+      <c r="N52" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" t="s">
+        <v>665</v>
+      </c>
+      <c r="R52" t="s">
+        <v>665</v>
+      </c>
+      <c r="S52" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E53" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F53" s="4">
+        <v>148</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1152</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4">
+        <v>118.2</v>
+      </c>
+      <c r="J53">
+        <v>289.63799999999998</v>
+      </c>
+      <c r="K53" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L53" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M53" s="4">
+        <v>23</v>
+      </c>
+      <c r="N53" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" t="s">
+        <v>665</v>
+      </c>
+      <c r="R53" t="s">
+        <v>665</v>
+      </c>
+      <c r="S53" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E54" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F54" s="4">
+        <v>422</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1227</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4">
+        <v>117.691</v>
+      </c>
+      <c r="J54">
+        <v>290.94200000000001</v>
+      </c>
+      <c r="K54" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L54" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M54" s="4">
+        <v>23</v>
+      </c>
+      <c r="N54" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" t="s">
+        <v>665</v>
+      </c>
+      <c r="R54" t="s">
+        <v>665</v>
+      </c>
+      <c r="S54" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="83">
+        <v>43.105600000000003</v>
+      </c>
+      <c r="E55" s="83">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>131</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1289</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
+        <v>115.604</v>
+      </c>
+      <c r="J55">
+        <v>304.42</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="0"/>
+        <v>44.56666666666667</v>
+      </c>
+      <c r="L55" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M55" s="4">
+        <v>23</v>
+      </c>
+      <c r="N55" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" t="s">
+        <v>665</v>
+      </c>
+      <c r="R55" t="s">
+        <v>665</v>
+      </c>
+      <c r="S55" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O53:P61">
+    <sortCondition ref="P53:P61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -70939,11 +79054,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65599BFC-5B06-4EDE-87C3-57BB3CCD5BDB}">
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W12" sqref="W12"/>
+    <sheetView topLeftCell="A28" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C42" sqref="C42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -72913,7 +81028,381 @@
         <v>1183</v>
       </c>
     </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.6">
+      <c r="E31" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="B33" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="B36" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E36">
+        <v>1983</v>
+      </c>
+      <c r="F36">
+        <v>1981</v>
+      </c>
+      <c r="G36" t="s">
+        <v>666</v>
+      </c>
+      <c r="H36" t="s">
+        <v>666</v>
+      </c>
+      <c r="I36" t="s">
+        <v>681</v>
+      </c>
+      <c r="J36" t="s">
+        <v>689</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L36" t="s">
+        <v>910</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="Z36" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="B37" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E37">
+        <v>2005</v>
+      </c>
+      <c r="F37">
+        <v>2000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>665</v>
+      </c>
+      <c r="H37" t="s">
+        <v>665</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J37" t="s">
+        <v>689</v>
+      </c>
+      <c r="K37" t="s">
+        <v>928</v>
+      </c>
+      <c r="L37" t="s">
+        <v>910</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="C38" s="64" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E38" s="64">
+        <v>1978</v>
+      </c>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64" t="s">
+        <v>666</v>
+      </c>
+      <c r="H38" s="64" t="s">
+        <v>666</v>
+      </c>
+      <c r="I38" s="64" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J38" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="K38" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="L38" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="B39" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E39">
+        <v>2011</v>
+      </c>
+      <c r="F39">
+        <v>2009</v>
+      </c>
+      <c r="G39" t="s">
+        <v>665</v>
+      </c>
+      <c r="H39" t="s">
+        <v>665</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J39" t="s">
+        <v>670</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1219</v>
+      </c>
+      <c r="L39" t="s">
+        <v>910</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="C40" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E40">
+        <v>2010</v>
+      </c>
+      <c r="K40" t="s">
+        <v>809</v>
+      </c>
+      <c r="L40" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="K41" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="C42" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E42">
+        <v>2009</v>
+      </c>
+      <c r="F42">
+        <v>2007</v>
+      </c>
+      <c r="G42" t="s">
+        <v>665</v>
+      </c>
+      <c r="H42" t="s">
+        <v>665</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J42" t="s">
+        <v>689</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L42" t="s">
+        <v>910</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="J43" t="s">
+        <v>670</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L43" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="J44" t="s">
+        <v>670</v>
+      </c>
+      <c r="K44" t="s">
+        <v>809</v>
+      </c>
+      <c r="L44" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="J45" t="s">
+        <v>670</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L45" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="J46" t="s">
+        <v>670</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L46" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="J47" t="s">
+        <v>670</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1219</v>
+      </c>
+      <c r="L47" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.6">
+      <c r="C48" s="64" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E48" s="64">
+        <v>2009</v>
+      </c>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.6">
+      <c r="C49" s="64" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E49" s="64">
+        <v>1997</v>
+      </c>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.6">
+      <c r="C50" s="64" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E50" s="64">
+        <v>1997</v>
+      </c>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.6">
+      <c r="C51" s="64" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E51" s="64">
+        <v>2006</v>
+      </c>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64" t="s">
+        <v>713</v>
+      </c>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64" t="s">
+        <v>1183</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/RawMaterials/data/LocalAdaptionDataGathering.xlsx
+++ b/RawMaterials/data/LocalAdaptionDataGathering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A5EEF-A6B2-4F69-96D7-4054CA60DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC27640-F36E-4591-A7E4-4592301900FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,6 +72,7 @@
     <definedName name="_ENREF_98" localSheetId="3">'ABIEGR Xie and Ying 1993'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>

--- a/RawMaterials/data/LocalAdaptionDataGathering.xlsx
+++ b/RawMaterials/data/LocalAdaptionDataGathering.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC27640-F36E-4591-A7E4-4592301900FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEDFC26-5750-4392-A74F-9E2296C0C73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,6 @@
     <definedName name="_ENREF_98" localSheetId="3">'ABIEGR Xie and Ying 1993'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33008,7 +33007,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q60"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -37788,8 +37787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -79916,9 +79915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65599BFC-5B06-4EDE-87C3-57BB3CCD5BDB}">
   <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -82320,7 +82319,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I16"/>
+      <selection activeCell="C5" sqref="C5:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>

--- a/RawMaterials/data/LocalAdaptionDataGathering.xlsx
+++ b/RawMaterials/data/LocalAdaptionDataGathering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEDFC26-5750-4392-A74F-9E2296C0C73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C1A33-AEB1-491E-B368-AF843D0A4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="920" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79915,9 +79915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65599BFC-5B06-4EDE-87C3-57BB3CCD5BDB}">
   <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
